--- a/CHILE/00 Causas Antropógenas/Por Sector/Emisiones CONSOLIDADO Chile 1990-2016.xlsx
+++ b/CHILE/00 Causas Antropógenas/Por Sector/Emisiones CONSOLIDADO Chile 1990-2016.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ICC\CHILE\Todos los sectores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\CHILE\00 Causas Antropógenas\Por Sector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8576F08-02E2-411B-B65B-A6AD057D8991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7CE02F-AD81-49C7-9C87-495C18E0076F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -617,16 +617,16 @@
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -771,46 +771,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -931,6 +891,46 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -986,18 +986,18 @@
   <autoFilter ref="A2:M137" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Año" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{3E5A0F28-3BCA-4D7C-8888-EF16AD40E49A}" name="Gas" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{D04D0FBB-1A2C-4915-A7D8-465718EC346B}" name="factor" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="1 - Energía" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2 - Procesos industriales y uso de productos" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="3 - Agricultura" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="4 - Usos de la tierra, cambios en el uso de la tierra y silvicultura" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="5 - Residuos" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{20E7460A-FCE0-47D4-BF8B-1C5158673ABD}" name="1 - Energía (ton CO2e)" dataDxfId="0" dataCellStyle="Millares [0]"/>
-    <tableColumn id="11" xr3:uid="{7BCFD750-138C-42A0-82D7-8EC33244E424}" name="2 - Procesos industriales (ton CO2e)" dataDxfId="4" dataCellStyle="Millares [0]"/>
-    <tableColumn id="12" xr3:uid="{2D191AE7-1D0F-4E86-9633-39CFF18C8829}" name="3 - Agricultura (ton CO2e)" dataDxfId="3" dataCellStyle="Millares [0]"/>
-    <tableColumn id="13" xr3:uid="{A0639339-0F5F-4A6E-BBAB-511B410C9A7C}" name="4 - Usos de la tierra, cambios en el uso de la tierra y silvicultura (ton CO2e)" dataDxfId="2" dataCellStyle="Millares [0]"/>
-    <tableColumn id="14" xr3:uid="{69C222EF-0078-4CD0-B057-6EE274E373F1}" name="5 - Residuos (ton CO2e)" dataDxfId="1" dataCellStyle="Millares [0]"/>
+    <tableColumn id="8" xr3:uid="{3E5A0F28-3BCA-4D7C-8888-EF16AD40E49A}" name="Gas" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{D04D0FBB-1A2C-4915-A7D8-465718EC346B}" name="factor" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="1 - Energía" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2 - Procesos industriales y uso de productos" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="3 - Agricultura" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="4 - Usos de la tierra, cambios en el uso de la tierra y silvicultura" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="5 - Residuos" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{20E7460A-FCE0-47D4-BF8B-1C5158673ABD}" name="1 - Energía (ton CO2e)" dataDxfId="4" dataCellStyle="Millares [0]"/>
+    <tableColumn id="11" xr3:uid="{7BCFD750-138C-42A0-82D7-8EC33244E424}" name="2 - Procesos industriales (ton CO2e)" dataDxfId="3" dataCellStyle="Millares [0]"/>
+    <tableColumn id="12" xr3:uid="{2D191AE7-1D0F-4E86-9633-39CFF18C8829}" name="3 - Agricultura (ton CO2e)" dataDxfId="2" dataCellStyle="Millares [0]"/>
+    <tableColumn id="13" xr3:uid="{A0639339-0F5F-4A6E-BBAB-511B410C9A7C}" name="4 - Usos de la tierra, cambios en el uso de la tierra y silvicultura (ton CO2e)" dataDxfId="1" dataCellStyle="Millares [0]"/>
+    <tableColumn id="14" xr3:uid="{69C222EF-0078-4CD0-B057-6EE274E373F1}" name="5 - Residuos (ton CO2e)" dataDxfId="0" dataCellStyle="Millares [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1302,38 +1302,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K144" sqref="K144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
       <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1343,19 +1343,19 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1374,7 +1374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1990</v>
       </c>
@@ -1399,23 +1399,23 @@
       <c r="H3" s="2">
         <v>111.5023187</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>2952210.2774999999</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>54325.599999999991</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>7100428.4950000001</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <v>130391.90249999998</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>2787557.9674999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1991</v>
       </c>
@@ -1440,23 +1440,23 @@
       <c r="H4" s="2">
         <v>113.8715332</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>2631709.73</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="6">
         <v>44986.277499999997</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>7177985.9225000003</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="6">
         <v>200938.38000000003</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>2846788.33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1992</v>
       </c>
@@ -1481,23 +1481,23 @@
       <c r="H5" s="2">
         <v>116.1732808</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>2507950.5250000004</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="6">
         <v>52938.474999999999</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>7375621.7250000006</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <v>86778.175000000003</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>2904332.02</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1993</v>
       </c>
@@ -1522,23 +1522,23 @@
       <c r="H6" s="2">
         <v>118.06127619999999</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>2416374.3174999999</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>50908.54</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>7608723.6875</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="6">
         <v>194454.70499999999</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <v>2951531.9049999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1994</v>
       </c>
@@ -1563,23 +1563,23 @@
       <c r="H7" s="2">
         <v>121.6396179</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>2437831.585</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="6">
         <v>54752.04</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>7869199.6299999999</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="6">
         <v>293703.66499999998</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="6">
         <v>3040990.4475000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1995</v>
       </c>
@@ -1604,23 +1604,23 @@
       <c r="H8" s="2">
         <v>126.907425</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>2243723.7875000001</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>53377.3</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>8013901.9799999995</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>97640.032499999987</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>3172685.625</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1996</v>
       </c>
@@ -1645,23 +1645,23 @@
       <c r="H9" s="2">
         <v>131.01051409999999</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>2226590.9750000001</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>54501.575000000004</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>8072330.9249999998</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <v>240472.15999999997</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="6">
         <v>3275262.8525</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1997</v>
       </c>
@@ -1686,23 +1686,23 @@
       <c r="H10" s="2">
         <v>134.18920739999999</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>2231986.2024999997</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>97943.1</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>8463204.5199999996</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="6">
         <v>190175.83</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="6">
         <v>3354730.1849999996</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1998</v>
       </c>
@@ -1727,23 +1727,23 @@
       <c r="H11" s="2">
         <v>136.59405770000001</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>2191959.6974999998</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>102247.41249999999</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <v>8412162.0749999993</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="6">
         <v>871671.34750000003</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="6">
         <v>3414851.4425000004</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1999</v>
       </c>
@@ -1768,23 +1768,23 @@
       <c r="H12" s="2">
         <v>139.80603289999999</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>2343002.5049999999</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <v>137305.35</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="6">
         <v>8333349.5499999989</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <v>430619.39500000002</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="6">
         <v>3495150.8224999998</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2000</v>
       </c>
@@ -1809,23 +1809,23 @@
       <c r="H13" s="2">
         <v>143.4082741</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <v>2558585.3250000002</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="6">
         <v>171023.29750000002</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="6">
         <v>8308836.0850000009</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="6">
         <v>57884.38</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="6">
         <v>3585206.8525</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2001</v>
       </c>
@@ -1850,23 +1850,23 @@
       <c r="H14" s="2">
         <v>158.45398890000001</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <v>2627155.585</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="6">
         <v>164641.71249999999</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="6">
         <v>8084398.9725000001</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="6">
         <v>40938.154999999992</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="6">
         <v>3961349.7225000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2002</v>
       </c>
@@ -1891,23 +1891,23 @@
       <c r="H15" s="2">
         <v>176.07065879999999</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <v>2577253.2075</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="6">
         <v>173215.25499999998</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="6">
         <v>8063043.1125000007</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="6">
         <v>597267.66999999993</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="6">
         <v>4401766.47</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2003</v>
       </c>
@@ -1932,23 +1932,23 @@
       <c r="H16" s="2">
         <v>183.10021639999999</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <v>2460328.9899999998</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="6">
         <v>159422.1575</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="6">
         <v>7963026.8075000001</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="6">
         <v>66525.219999999987</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="6">
         <v>4577505.41</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2004</v>
       </c>
@@ -1973,23 +1973,23 @@
       <c r="H17" s="2">
         <v>187.22368539999999</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <v>2500939.3650000002</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="6">
         <v>159176.08499999999</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="6">
         <v>8053379.4325000001</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="6">
         <v>121739.595</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="6">
         <v>4680592.1349999998</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2005</v>
       </c>
@@ -2014,23 +2014,23 @@
       <c r="H18" s="2">
         <v>197.64203760000001</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>2536610.4674999998</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="6">
         <v>177981.61499999999</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>8093798.7875000006</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="6">
         <v>137454.98250000001</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="6">
         <v>4941050.9400000004</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2006</v>
       </c>
@@ -2055,23 +2055,23 @@
       <c r="H19" s="2">
         <v>189.1996661</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <v>2450505.9374999995</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="6">
         <v>186108.86250000002</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>8155109.7400000002</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="6">
         <v>67024.742500000008</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="6">
         <v>4729991.6524999999</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2007</v>
       </c>
@@ -2096,23 +2096,23 @@
       <c r="H20" s="2">
         <v>177.37761420000001</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <v>2221962.7200000002</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="6">
         <v>110372.38</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="6">
         <v>8148047.3575000009</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="6">
         <v>305490.1875</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="6">
         <v>4434440.3550000004</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2008</v>
       </c>
@@ -2137,23 +2137,23 @@
       <c r="H21" s="2">
         <v>169.2183057</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="6">
         <v>2124904.3374999999</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="6">
         <v>67768.107499999998</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <v>7839923.29</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="6">
         <v>277051.18</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="6">
         <v>4230457.6425000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2009</v>
       </c>
@@ -2178,23 +2178,23 @@
       <c r="H22" s="2">
         <v>161.11333529999999</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="6">
         <v>2331065.88</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="6">
         <v>59760.21</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="6">
         <v>7497749.4100000001</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="6">
         <v>265765.30249999999</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="6">
         <v>4027833.3824999994</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2010</v>
       </c>
@@ -2219,23 +2219,23 @@
       <c r="H23" s="2">
         <v>166.97319680000001</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="6">
         <v>1912782.7450000001</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="6">
         <v>57117.680000000008</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="6">
         <v>7246475.5124999993</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="6">
         <v>172109.48749999999</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="6">
         <v>4174329.92</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2011</v>
       </c>
@@ -2260,23 +2260,23 @@
       <c r="H24" s="2">
         <v>173.1814799</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="6">
         <v>1847556.26</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="6">
         <v>37612.777499999997</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="6">
         <v>7006377.0700000003</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="6">
         <v>87579.925000000003</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="6">
         <v>4329536.9975000005</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2012</v>
       </c>
@@ -2301,23 +2301,23 @@
       <c r="H25" s="2">
         <v>178.9123324</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="6">
         <v>1898383.9374999998</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="6">
         <v>29575.607500000002</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="6">
         <v>7283754.3874999993</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="6">
         <v>353097.83</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="6">
         <v>4472808.3100000005</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2013</v>
       </c>
@@ -2342,23 +2342,23 @@
       <c r="H26" s="2">
         <v>199.07544060000001</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="6">
         <v>1930896.9874999998</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="6">
         <v>21045.272499999999</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="6">
         <v>7298720.8075000001</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="6">
         <v>38271.142499999994</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="6">
         <v>4976886.0149999997</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2014</v>
       </c>
@@ -2383,23 +2383,23 @@
       <c r="H27" s="2">
         <v>202.21503989999999</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="6">
         <v>1918002.4025000003</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="6">
         <v>15698.745000000001</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="6">
         <v>6973813.7750000004</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="6">
         <v>412407.64250000002</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="6">
         <v>5055375.9975000005</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2015</v>
       </c>
@@ -2424,23 +2424,23 @@
       <c r="H28" s="2">
         <v>215.13195110000001</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="6">
         <v>1820105.7349999999</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="6">
         <v>15009.102499999999</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="6">
         <v>6770516.8125</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="6">
         <v>700803.46499999997</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="6">
         <v>5378298.7774999999</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2016</v>
       </c>
@@ -2465,23 +2465,23 @@
       <c r="H29" s="2">
         <v>217.4829608</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="6">
         <v>1888252.79</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="6">
         <v>22819.192500000001</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="6">
         <v>6589541.3500000006</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="6">
         <v>126577.14749999999</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="6">
         <v>5437074.0199999996</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1990</v>
       </c>
@@ -2506,23 +2506,23 @@
       <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="I30" s="8">
-        <v>0</v>
-      </c>
-      <c r="J30" s="8">
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
         <v>61328.4159</v>
       </c>
-      <c r="K30" s="8">
-        <v>0</v>
-      </c>
-      <c r="L30" s="8">
-        <v>0</v>
-      </c>
-      <c r="M30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1991</v>
       </c>
@@ -2547,23 +2547,23 @@
       <c r="H31" s="2">
         <v>0</v>
       </c>
-      <c r="I31" s="8">
-        <v>0</v>
-      </c>
-      <c r="J31" s="8">
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
         <v>43749.966899999999</v>
       </c>
-      <c r="K31" s="8">
-        <v>0</v>
-      </c>
-      <c r="L31" s="8">
-        <v>0</v>
-      </c>
-      <c r="M31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1992</v>
       </c>
@@ -2588,23 +2588,23 @@
       <c r="H32" s="2">
         <v>0</v>
       </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8">
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
         <v>49370.166900000004</v>
       </c>
-      <c r="K32" s="8">
-        <v>0</v>
-      </c>
-      <c r="L32" s="8">
-        <v>0</v>
-      </c>
-      <c r="M32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1993</v>
       </c>
@@ -2629,23 +2629,23 @@
       <c r="H33" s="2">
         <v>0</v>
       </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
         <v>46590.830599999994</v>
       </c>
-      <c r="K33" s="8">
-        <v>0</v>
-      </c>
-      <c r="L33" s="8">
-        <v>0</v>
-      </c>
-      <c r="M33" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1994</v>
       </c>
@@ -2670,23 +2670,23 @@
       <c r="H34" s="2">
         <v>0</v>
       </c>
-      <c r="I34" s="8">
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
         <v>69843.912200000006</v>
       </c>
-      <c r="K34" s="8">
-        <v>0</v>
-      </c>
-      <c r="L34" s="8">
-        <v>0</v>
-      </c>
-      <c r="M34" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1995</v>
       </c>
@@ -2711,23 +2711,23 @@
       <c r="H35" s="2">
         <v>0</v>
       </c>
-      <c r="I35" s="8">
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
         <v>76477.482699999993</v>
       </c>
-      <c r="K35" s="8">
-        <v>0</v>
-      </c>
-      <c r="L35" s="8">
-        <v>0</v>
-      </c>
-      <c r="M35" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1996</v>
       </c>
@@ -2752,23 +2752,23 @@
       <c r="H36" s="2">
         <v>0</v>
       </c>
-      <c r="I36" s="8">
-        <v>0</v>
-      </c>
-      <c r="J36" s="8">
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
         <v>74752.479600000006</v>
       </c>
-      <c r="K36" s="8">
-        <v>0</v>
-      </c>
-      <c r="L36" s="8">
-        <v>0</v>
-      </c>
-      <c r="M36" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1997</v>
       </c>
@@ -2793,23 +2793,23 @@
       <c r="H37" s="2">
         <v>0</v>
       </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
         <v>99003.165699999998</v>
       </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
-      <c r="L37" s="8">
-        <v>0</v>
-      </c>
-      <c r="M37" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1998</v>
       </c>
@@ -2834,23 +2834,23 @@
       <c r="H38" s="2">
         <v>0</v>
       </c>
-      <c r="I38" s="8">
-        <v>0</v>
-      </c>
-      <c r="J38" s="8">
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
         <v>122358.64270000001</v>
       </c>
-      <c r="K38" s="8">
-        <v>0</v>
-      </c>
-      <c r="L38" s="8">
-        <v>0</v>
-      </c>
-      <c r="M38" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1999</v>
       </c>
@@ -2875,23 +2875,23 @@
       <c r="H39" s="2">
         <v>0</v>
       </c>
-      <c r="I39" s="8">
-        <v>0</v>
-      </c>
-      <c r="J39" s="8">
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
         <v>103132.0956</v>
       </c>
-      <c r="K39" s="8">
-        <v>0</v>
-      </c>
-      <c r="L39" s="8">
-        <v>0</v>
-      </c>
-      <c r="M39" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2000</v>
       </c>
@@ -2916,23 +2916,23 @@
       <c r="H40" s="2">
         <v>0</v>
       </c>
-      <c r="I40" s="8">
-        <v>0</v>
-      </c>
-      <c r="J40" s="8">
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
         <v>94087.449899999992</v>
       </c>
-      <c r="K40" s="8">
-        <v>0</v>
-      </c>
-      <c r="L40" s="8">
-        <v>0</v>
-      </c>
-      <c r="M40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>2001</v>
       </c>
@@ -2957,23 +2957,23 @@
       <c r="H41" s="2">
         <v>0</v>
       </c>
-      <c r="I41" s="8">
-        <v>0</v>
-      </c>
-      <c r="J41" s="8">
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
         <v>98643.117899999997</v>
       </c>
-      <c r="K41" s="8">
-        <v>0</v>
-      </c>
-      <c r="L41" s="8">
-        <v>0</v>
-      </c>
-      <c r="M41" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>2002</v>
       </c>
@@ -2998,23 +2998,23 @@
       <c r="H42" s="2">
         <v>0</v>
       </c>
-      <c r="I42" s="8">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
         <v>96009.649399999995</v>
       </c>
-      <c r="K42" s="8">
-        <v>0</v>
-      </c>
-      <c r="L42" s="8">
-        <v>0</v>
-      </c>
-      <c r="M42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2003</v>
       </c>
@@ -3039,23 +3039,23 @@
       <c r="H43" s="2">
         <v>0</v>
       </c>
-      <c r="I43" s="8">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8">
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
         <v>136454.4853</v>
       </c>
-      <c r="K43" s="8">
-        <v>0</v>
-      </c>
-      <c r="L43" s="8">
-        <v>0</v>
-      </c>
-      <c r="M43" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>2004</v>
       </c>
@@ -3080,23 +3080,23 @@
       <c r="H44" s="2">
         <v>0</v>
       </c>
-      <c r="I44" s="8">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
         <v>122537.0099</v>
       </c>
-      <c r="K44" s="8">
-        <v>0</v>
-      </c>
-      <c r="L44" s="8">
-        <v>0</v>
-      </c>
-      <c r="M44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>2005</v>
       </c>
@@ -3121,23 +3121,23 @@
       <c r="H45" s="2">
         <v>0</v>
       </c>
-      <c r="I45" s="8">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8">
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
         <v>113341.01669999999</v>
       </c>
-      <c r="K45" s="8">
-        <v>0</v>
-      </c>
-      <c r="L45" s="8">
-        <v>0</v>
-      </c>
-      <c r="M45" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>2006</v>
       </c>
@@ -3162,23 +3162,23 @@
       <c r="H46" s="2">
         <v>0</v>
       </c>
-      <c r="I46" s="8">
-        <v>0</v>
-      </c>
-      <c r="J46" s="8">
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
         <v>129735.71219999999</v>
       </c>
-      <c r="K46" s="8">
-        <v>0</v>
-      </c>
-      <c r="L46" s="8">
-        <v>0</v>
-      </c>
-      <c r="M46" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2007</v>
       </c>
@@ -3203,23 +3203,23 @@
       <c r="H47" s="2">
         <v>0</v>
       </c>
-      <c r="I47" s="8">
-        <v>0</v>
-      </c>
-      <c r="J47" s="8">
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
         <v>145217.0968</v>
       </c>
-      <c r="K47" s="8">
-        <v>0</v>
-      </c>
-      <c r="L47" s="8">
-        <v>0</v>
-      </c>
-      <c r="M47" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2008</v>
       </c>
@@ -3244,23 +3244,23 @@
       <c r="H48" s="2">
         <v>0</v>
       </c>
-      <c r="I48" s="8">
-        <v>0</v>
-      </c>
-      <c r="J48" s="8">
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
         <v>178862.23149999999</v>
       </c>
-      <c r="K48" s="8">
-        <v>0</v>
-      </c>
-      <c r="L48" s="8">
-        <v>0</v>
-      </c>
-      <c r="M48" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>2009</v>
       </c>
@@ -3285,23 +3285,23 @@
       <c r="H49" s="2">
         <v>0</v>
       </c>
-      <c r="I49" s="8">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8">
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
         <v>168698.01240000001</v>
       </c>
-      <c r="K49" s="8">
-        <v>0</v>
-      </c>
-      <c r="L49" s="8">
-        <v>0</v>
-      </c>
-      <c r="M49" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>2010</v>
       </c>
@@ -3326,23 +3326,23 @@
       <c r="H50" s="2">
         <v>0</v>
       </c>
-      <c r="I50" s="8">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
         <v>242691.12910000002</v>
       </c>
-      <c r="K50" s="8">
-        <v>0</v>
-      </c>
-      <c r="L50" s="8">
-        <v>0</v>
-      </c>
-      <c r="M50" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>2011</v>
       </c>
@@ -3367,23 +3367,23 @@
       <c r="H51" s="2">
         <v>0</v>
       </c>
-      <c r="I51" s="8">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
         <v>244847.83550000002</v>
       </c>
-      <c r="K51" s="8">
-        <v>0</v>
-      </c>
-      <c r="L51" s="8">
-        <v>0</v>
-      </c>
-      <c r="M51" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>2012</v>
       </c>
@@ -3408,23 +3408,23 @@
       <c r="H52" s="2">
         <v>0</v>
       </c>
-      <c r="I52" s="8">
-        <v>0</v>
-      </c>
-      <c r="J52" s="8">
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
         <v>233076.21910000002</v>
       </c>
-      <c r="K52" s="8">
-        <v>0</v>
-      </c>
-      <c r="L52" s="8">
-        <v>0</v>
-      </c>
-      <c r="M52" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>2013</v>
       </c>
@@ -3449,23 +3449,23 @@
       <c r="H53" s="2">
         <v>0</v>
       </c>
-      <c r="I53" s="8">
-        <v>0</v>
-      </c>
-      <c r="J53" s="8">
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
         <v>233824.80039999998</v>
       </c>
-      <c r="K53" s="8">
-        <v>0</v>
-      </c>
-      <c r="L53" s="8">
-        <v>0</v>
-      </c>
-      <c r="M53" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K53" s="6">
+        <v>0</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>2014</v>
       </c>
@@ -3490,23 +3490,23 @@
       <c r="H54" s="2">
         <v>0</v>
       </c>
-      <c r="I54" s="8">
-        <v>0</v>
-      </c>
-      <c r="J54" s="8">
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
         <v>232897.51129999998</v>
       </c>
-      <c r="K54" s="8">
-        <v>0</v>
-      </c>
-      <c r="L54" s="8">
-        <v>0</v>
-      </c>
-      <c r="M54" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K54" s="6">
+        <v>0</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>2015</v>
       </c>
@@ -3531,23 +3531,23 @@
       <c r="H55" s="2">
         <v>0</v>
       </c>
-      <c r="I55" s="8">
-        <v>0</v>
-      </c>
-      <c r="J55" s="8">
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
         <v>242325.77929999999</v>
       </c>
-      <c r="K55" s="8">
-        <v>0</v>
-      </c>
-      <c r="L55" s="8">
-        <v>0</v>
-      </c>
-      <c r="M55" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K55" s="6">
+        <v>0</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>2016</v>
       </c>
@@ -3572,23 +3572,23 @@
       <c r="H56" s="2">
         <v>0</v>
       </c>
-      <c r="I56" s="8">
-        <v>0</v>
-      </c>
-      <c r="J56" s="8">
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
         <v>272268.47249999997</v>
       </c>
-      <c r="K56" s="8">
-        <v>0</v>
-      </c>
-      <c r="L56" s="8">
-        <v>0</v>
-      </c>
-      <c r="M56" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K56" s="6">
+        <v>0</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>1990</v>
       </c>
@@ -3613,23 +3613,23 @@
       <c r="H57" s="2">
         <v>0.60987690000000006</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="6">
         <v>321935.18119999999</v>
       </c>
-      <c r="J57" s="8">
+      <c r="J57" s="6">
         <v>295737.435</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="6">
         <v>4770533.5661999993</v>
       </c>
-      <c r="L57" s="8">
+      <c r="L57" s="6">
         <v>86370.621399999989</v>
       </c>
-      <c r="M57" s="8">
+      <c r="M57" s="6">
         <v>181743.3162</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>1991</v>
       </c>
@@ -3654,23 +3654,23 @@
       <c r="H58" s="2">
         <v>0.62063460000000004</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="6">
         <v>330757.50099999999</v>
       </c>
-      <c r="J58" s="8">
+      <c r="J58" s="6">
         <v>295737.435</v>
       </c>
-      <c r="K58" s="8">
+      <c r="K58" s="6">
         <v>4763476.5388000002</v>
       </c>
-      <c r="L58" s="8">
+      <c r="L58" s="6">
         <v>133260.29560000001</v>
       </c>
-      <c r="M58" s="8">
+      <c r="M58" s="6">
         <v>184949.11079999999</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>1992</v>
       </c>
@@ -3695,23 +3695,23 @@
       <c r="H59" s="2">
         <v>0.69002070000000004</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="6">
         <v>354831.78859999997</v>
       </c>
-      <c r="J59" s="8">
+      <c r="J59" s="6">
         <v>295737.435</v>
       </c>
-      <c r="K59" s="8">
+      <c r="K59" s="6">
         <v>4941572.8118000003</v>
       </c>
-      <c r="L59" s="8">
+      <c r="L59" s="6">
         <v>57715.954600000005</v>
       </c>
-      <c r="M59" s="8">
+      <c r="M59" s="6">
         <v>205626.1686</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>1993</v>
       </c>
@@ -3736,23 +3736,23 @@
       <c r="H60" s="2">
         <v>0.71235300000000001</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="6">
         <v>360036.92480000004</v>
       </c>
-      <c r="J60" s="8">
+      <c r="J60" s="6">
         <v>295737.435</v>
       </c>
-      <c r="K60" s="8">
+      <c r="K60" s="6">
         <v>5130607.6217999998</v>
       </c>
-      <c r="L60" s="8">
+      <c r="L60" s="6">
         <v>129123.8768</v>
       </c>
-      <c r="M60" s="8">
+      <c r="M60" s="6">
         <v>212281.19399999999</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>1994</v>
       </c>
@@ -3777,23 +3777,23 @@
       <c r="H61" s="2">
         <v>0.72523099999999996</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="6">
         <v>390375.679</v>
       </c>
-      <c r="J61" s="8">
+      <c r="J61" s="6">
         <v>295737.435</v>
       </c>
-      <c r="K61" s="8">
+      <c r="K61" s="6">
         <v>5249419.4172</v>
       </c>
-      <c r="L61" s="8">
+      <c r="L61" s="6">
         <v>194999.28000000003</v>
       </c>
-      <c r="M61" s="8">
+      <c r="M61" s="6">
         <v>216118.83799999999</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1995</v>
       </c>
@@ -3818,23 +3818,23 @@
       <c r="H62" s="2">
         <v>0.7335988</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="6">
         <v>431937.59</v>
       </c>
-      <c r="J62" s="8">
+      <c r="J62" s="6">
         <v>295737.435</v>
       </c>
-      <c r="K62" s="8">
+      <c r="K62" s="6">
         <v>5387498.8495999994</v>
       </c>
-      <c r="L62" s="8">
+      <c r="L62" s="6">
         <v>64798.073599999996</v>
       </c>
-      <c r="M62" s="8">
+      <c r="M62" s="6">
         <v>218612.4424</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1996</v>
       </c>
@@ -3859,23 +3859,23 @@
       <c r="H63" s="2">
         <v>0.75449960000000005</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="6">
         <v>488051.64560000005</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J63" s="6">
         <v>295737.435</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K63" s="6">
         <v>5394944.3498</v>
       </c>
-      <c r="L63" s="8">
+      <c r="L63" s="6">
         <v>159110.63340000002</v>
       </c>
-      <c r="M63" s="8">
+      <c r="M63" s="6">
         <v>224840.88080000001</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1997</v>
       </c>
@@ -3900,23 +3900,23 @@
       <c r="H64" s="2">
         <v>0.75876200000000005</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="6">
         <v>528481.39500000002</v>
       </c>
-      <c r="J64" s="8">
+      <c r="J64" s="6">
         <v>295737.435</v>
       </c>
-      <c r="K64" s="8">
+      <c r="K64" s="6">
         <v>5497245.1273999996</v>
       </c>
-      <c r="L64" s="8">
+      <c r="L64" s="6">
         <v>126033.19959999999</v>
       </c>
-      <c r="M64" s="8">
+      <c r="M64" s="6">
         <v>226111.07600000003</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>1998</v>
       </c>
@@ -3941,23 +3941,23 @@
       <c r="H65" s="2">
         <v>0.76768809999999998</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="6">
         <v>556031.43539999996</v>
       </c>
-      <c r="J65" s="8">
+      <c r="J65" s="6">
         <v>295737.435</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K65" s="6">
         <v>5477231.9241999993</v>
       </c>
-      <c r="L65" s="8">
+      <c r="L65" s="6">
         <v>575735.64240000001</v>
       </c>
-      <c r="M65" s="8">
+      <c r="M65" s="6">
         <v>228771.05379999999</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>1999</v>
       </c>
@@ -3982,23 +3982,23 @@
       <c r="H66" s="2">
         <v>0.76604070000000002</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="6">
         <v>586165.40399999998</v>
       </c>
-      <c r="J66" s="8">
+      <c r="J66" s="6">
         <v>295737.435</v>
       </c>
-      <c r="K66" s="8">
+      <c r="K66" s="6">
         <v>5537302.1383999996</v>
       </c>
-      <c r="L66" s="8">
+      <c r="L66" s="6">
         <v>285283.20760000002</v>
       </c>
-      <c r="M66" s="8">
+      <c r="M66" s="6">
         <v>228280.12860000003</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>2000</v>
       </c>
@@ -4023,23 +4023,23 @@
       <c r="H67" s="2">
         <v>0.79585539999999999</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="6">
         <v>586330.67480000004</v>
       </c>
-      <c r="J67" s="8">
+      <c r="J67" s="6">
         <v>513315.69820000004</v>
       </c>
-      <c r="K67" s="8">
+      <c r="K67" s="6">
         <v>5333355.0507999994</v>
       </c>
-      <c r="L67" s="8">
+      <c r="L67" s="6">
         <v>38460.178000000007</v>
       </c>
-      <c r="M67" s="8">
+      <c r="M67" s="6">
         <v>237164.90920000002</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>2001</v>
       </c>
@@ -4064,23 +4064,23 @@
       <c r="H68" s="2">
         <v>0.81966749999999999</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="6">
         <v>562057.59140000003</v>
       </c>
-      <c r="J68" s="8">
+      <c r="J68" s="6">
         <v>562957.34279999998</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K68" s="6">
         <v>5444763.0958000012</v>
       </c>
-      <c r="L68" s="8">
+      <c r="L68" s="6">
         <v>27130.903399999999</v>
       </c>
-      <c r="M68" s="8">
+      <c r="M68" s="6">
         <v>244260.91500000001</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>2002</v>
       </c>
@@ -4105,23 +4105,23 @@
       <c r="H69" s="2">
         <v>0.87081759999999997</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="6">
         <v>582599.05920000002</v>
       </c>
-      <c r="J69" s="8">
+      <c r="J69" s="6">
         <v>540988.27619999996</v>
       </c>
-      <c r="K69" s="8">
+      <c r="K69" s="6">
         <v>5514171.9744000006</v>
       </c>
-      <c r="L69" s="8">
+      <c r="L69" s="6">
         <v>394666.58100000001</v>
       </c>
-      <c r="M69" s="8">
+      <c r="M69" s="6">
         <v>259503.64480000001</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>2003</v>
       </c>
@@ -4146,23 +4146,23 @@
       <c r="H70" s="2">
         <v>0.90261720000000001</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="6">
         <v>573320.56099999999</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J70" s="6">
         <v>698785.32559999998</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K70" s="6">
         <v>5309256.8039999995</v>
       </c>
-      <c r="L70" s="8">
+      <c r="L70" s="6">
         <v>44734.031600000002</v>
       </c>
-      <c r="M70" s="8">
+      <c r="M70" s="6">
         <v>268979.92560000002</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>2004</v>
       </c>
@@ -4187,23 +4187,23 @@
       <c r="H71" s="2">
         <v>0.94134249999999997</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="6">
         <v>604428.54259999993</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J71" s="6">
         <v>811376.78819999995</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K71" s="6">
         <v>5611084.9418000001</v>
       </c>
-      <c r="L71" s="8">
+      <c r="L71" s="6">
         <v>81110.593600000007</v>
       </c>
-      <c r="M71" s="8">
+      <c r="M71" s="6">
         <v>280520.065</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>2005</v>
       </c>
@@ -4228,23 +4228,23 @@
       <c r="H72" s="2">
         <v>0.96450239999999998</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="6">
         <v>646383.69439999992</v>
       </c>
-      <c r="J72" s="8">
+      <c r="J72" s="6">
         <v>856793.59739999997</v>
       </c>
-      <c r="K72" s="8">
+      <c r="K72" s="6">
         <v>5436312.0542000011</v>
       </c>
-      <c r="L72" s="8">
+      <c r="L72" s="6">
         <v>92074.818200000009</v>
       </c>
-      <c r="M72" s="8">
+      <c r="M72" s="6">
         <v>287421.71519999998</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>2006</v>
       </c>
@@ -4269,23 +4269,23 @@
       <c r="H73" s="2">
         <v>1.0030323000000001</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="6">
         <v>665943.4608</v>
       </c>
-      <c r="J73" s="8">
+      <c r="J73" s="6">
         <v>873481.62719999999</v>
       </c>
-      <c r="K73" s="8">
+      <c r="K73" s="6">
         <v>5523496.7520000003</v>
       </c>
-      <c r="L73" s="8">
+      <c r="L73" s="6">
         <v>44650.144600000007</v>
       </c>
-      <c r="M73" s="8">
+      <c r="M73" s="6">
         <v>298903.62540000002</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>2007</v>
       </c>
@@ -4310,23 +4310,23 @@
       <c r="H74" s="2">
         <v>1.0187179</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="6">
         <v>741050.39740000002</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J74" s="6">
         <v>374465.93580000004</v>
       </c>
-      <c r="K74" s="8">
+      <c r="K74" s="6">
         <v>5669624.3895999994</v>
       </c>
-      <c r="L74" s="8">
+      <c r="L74" s="6">
         <v>201415.99479999999</v>
       </c>
-      <c r="M74" s="8">
+      <c r="M74" s="6">
         <v>303577.93419999996</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>2008</v>
       </c>
@@ -4351,23 +4351,23 @@
       <c r="H75" s="2">
         <v>1.0393654000000001</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I75" s="6">
         <v>783109.37240000011</v>
       </c>
-      <c r="J75" s="8">
+      <c r="J75" s="6">
         <v>401861.34399999998</v>
       </c>
-      <c r="K75" s="8">
+      <c r="K75" s="6">
         <v>5712053.2719999999</v>
       </c>
-      <c r="L75" s="8">
+      <c r="L75" s="6">
         <v>183270.95359999998</v>
       </c>
-      <c r="M75" s="8">
+      <c r="M75" s="6">
         <v>309730.88920000003</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>2009</v>
       </c>
@@ -4392,23 +4392,23 @@
       <c r="H76" s="2">
         <v>1.1294092</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I76" s="6">
         <v>789596.62379999994</v>
       </c>
-      <c r="J76" s="8">
+      <c r="J76" s="6">
         <v>412959.07260000001</v>
       </c>
-      <c r="K76" s="8">
+      <c r="K76" s="6">
         <v>5651124.2813999997</v>
       </c>
-      <c r="L76" s="8">
+      <c r="L76" s="6">
         <v>176083.13399999999</v>
       </c>
-      <c r="M76" s="8">
+      <c r="M76" s="6">
         <v>336563.94160000002</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>2010</v>
       </c>
@@ -4433,23 +4433,23 @@
       <c r="H77" s="2">
         <v>1.0992389</v>
       </c>
-      <c r="I77" s="8">
+      <c r="I77" s="6">
         <v>732639.85400000005</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J77" s="6">
         <v>504006.14840000001</v>
       </c>
-      <c r="K77" s="8">
+      <c r="K77" s="6">
         <v>5527467.8701999998</v>
       </c>
-      <c r="L77" s="8">
+      <c r="L77" s="6">
         <v>114488.47100000001</v>
       </c>
-      <c r="M77" s="8">
+      <c r="M77" s="6">
         <v>327573.19219999999</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>2011</v>
       </c>
@@ -4474,23 +4474,23 @@
       <c r="H78" s="2">
         <v>1.0877568</v>
       </c>
-      <c r="I78" s="8">
+      <c r="I78" s="6">
         <v>789643.61840000004</v>
       </c>
-      <c r="J78" s="8">
+      <c r="J78" s="6">
         <v>486439.16760000004</v>
       </c>
-      <c r="K78" s="8">
+      <c r="K78" s="6">
         <v>5087297.3447999991</v>
       </c>
-      <c r="L78" s="8">
+      <c r="L78" s="6">
         <v>58566.446599999996</v>
       </c>
-      <c r="M78" s="8">
+      <c r="M78" s="6">
         <v>324151.52639999997</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>2012</v>
       </c>
@@ -4515,23 +4515,23 @@
       <c r="H79" s="2">
         <v>1.0987651000000001</v>
       </c>
-      <c r="I79" s="8">
+      <c r="I79" s="6">
         <v>973227.91899999988</v>
       </c>
-      <c r="J79" s="8">
+      <c r="J79" s="6">
         <v>594710.58380000002</v>
       </c>
-      <c r="K79" s="8">
+      <c r="K79" s="6">
         <v>4910237.6946</v>
       </c>
-      <c r="L79" s="8">
+      <c r="L79" s="6">
         <v>233758.50099999999</v>
       </c>
-      <c r="M79" s="8">
+      <c r="M79" s="6">
         <v>327431.99980000005</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>2013</v>
       </c>
@@ -4556,23 +4556,23 @@
       <c r="H80" s="2">
         <v>1.1448271000000001</v>
       </c>
-      <c r="I80" s="8">
+      <c r="I80" s="6">
         <v>1044406.8282000001</v>
       </c>
-      <c r="J80" s="8">
+      <c r="J80" s="6">
         <v>541305.13960000011</v>
       </c>
-      <c r="K80" s="8">
+      <c r="K80" s="6">
         <v>5040308.7047999995</v>
       </c>
-      <c r="L80" s="8">
+      <c r="L80" s="6">
         <v>25618.464</v>
       </c>
-      <c r="M80" s="8">
+      <c r="M80" s="6">
         <v>341158.47580000001</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>2014</v>
       </c>
@@ -4597,23 +4597,23 @@
       <c r="H81" s="2">
         <v>1.1682167999999999</v>
       </c>
-      <c r="I81" s="8">
+      <c r="I81" s="6">
         <v>1068615.9012</v>
       </c>
-      <c r="J81" s="8">
+      <c r="J81" s="6">
         <v>528177.3456</v>
       </c>
-      <c r="K81" s="8">
+      <c r="K81" s="6">
         <v>4963565.9567999998</v>
       </c>
-      <c r="L81" s="8">
+      <c r="L81" s="6">
         <v>273005.69699999999</v>
       </c>
-      <c r="M81" s="8">
+      <c r="M81" s="6">
         <v>348128.60639999999</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>2015</v>
       </c>
@@ -4638,23 +4638,23 @@
       <c r="H82" s="2">
         <v>1.1938010999999999</v>
       </c>
-      <c r="I82" s="8">
+      <c r="I82" s="6">
         <v>1056276.9131999998</v>
       </c>
-      <c r="J82" s="8">
+      <c r="J82" s="6">
         <v>538693.28879999998</v>
       </c>
-      <c r="K82" s="8">
+      <c r="K82" s="6">
         <v>4912031.7439999999</v>
       </c>
-      <c r="L82" s="8">
+      <c r="L82" s="6">
         <v>463670.09019999998</v>
       </c>
-      <c r="M82" s="8">
+      <c r="M82" s="6">
         <v>355752.72779999999</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>2016</v>
       </c>
@@ -4679,23 +4679,23 @@
       <c r="H83" s="2">
         <v>1.2197560000000001</v>
       </c>
-      <c r="I83" s="8">
+      <c r="I83" s="6">
         <v>1126329.2334</v>
       </c>
-      <c r="J83" s="8">
+      <c r="J83" s="6">
         <v>452224.80420000001</v>
       </c>
-      <c r="K83" s="8">
+      <c r="K83" s="6">
         <v>4766708.9448000006</v>
       </c>
-      <c r="L83" s="8">
+      <c r="L83" s="6">
         <v>84045.237999999998</v>
       </c>
-      <c r="M83" s="8">
+      <c r="M83" s="6">
         <v>363487.28800000006</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>1990</v>
       </c>
@@ -4720,23 +4720,23 @@
       <c r="H84" s="2">
         <v>0</v>
       </c>
-      <c r="I84" s="8">
-        <v>0</v>
-      </c>
-      <c r="J84" s="8">
-        <v>0</v>
-      </c>
-      <c r="K84" s="8">
-        <v>0</v>
-      </c>
-      <c r="L84" s="8">
-        <v>0</v>
-      </c>
-      <c r="M84" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I84" s="6">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6">
+        <v>0</v>
+      </c>
+      <c r="K84" s="6">
+        <v>0</v>
+      </c>
+      <c r="L84" s="6">
+        <v>0</v>
+      </c>
+      <c r="M84" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>1991</v>
       </c>
@@ -4761,23 +4761,23 @@
       <c r="H85" s="2">
         <v>0</v>
       </c>
-      <c r="I85" s="8">
-        <v>0</v>
-      </c>
-      <c r="J85" s="8">
-        <v>0</v>
-      </c>
-      <c r="K85" s="8">
-        <v>0</v>
-      </c>
-      <c r="L85" s="8">
-        <v>0</v>
-      </c>
-      <c r="M85" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I85" s="6">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6">
+        <v>0</v>
+      </c>
+      <c r="K85" s="6">
+        <v>0</v>
+      </c>
+      <c r="L85" s="6">
+        <v>0</v>
+      </c>
+      <c r="M85" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>1992</v>
       </c>
@@ -4802,23 +4802,23 @@
       <c r="H86" s="2">
         <v>0</v>
       </c>
-      <c r="I86" s="8">
-        <v>0</v>
-      </c>
-      <c r="J86" s="8">
-        <v>0</v>
-      </c>
-      <c r="K86" s="8">
-        <v>0</v>
-      </c>
-      <c r="L86" s="8">
-        <v>0</v>
-      </c>
-      <c r="M86" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I86" s="6">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6">
+        <v>0</v>
+      </c>
+      <c r="K86" s="6">
+        <v>0</v>
+      </c>
+      <c r="L86" s="6">
+        <v>0</v>
+      </c>
+      <c r="M86" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>1993</v>
       </c>
@@ -4843,23 +4843,23 @@
       <c r="H87" s="2">
         <v>0</v>
       </c>
-      <c r="I87" s="8">
-        <v>0</v>
-      </c>
-      <c r="J87" s="8">
-        <v>0</v>
-      </c>
-      <c r="K87" s="8">
-        <v>0</v>
-      </c>
-      <c r="L87" s="8">
-        <v>0</v>
-      </c>
-      <c r="M87" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I87" s="6">
+        <v>0</v>
+      </c>
+      <c r="J87" s="6">
+        <v>0</v>
+      </c>
+      <c r="K87" s="6">
+        <v>0</v>
+      </c>
+      <c r="L87" s="6">
+        <v>0</v>
+      </c>
+      <c r="M87" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>1994</v>
       </c>
@@ -4884,23 +4884,23 @@
       <c r="H88" s="2">
         <v>0</v>
       </c>
-      <c r="I88" s="8">
-        <v>0</v>
-      </c>
-      <c r="J88" s="8">
-        <v>0</v>
-      </c>
-      <c r="K88" s="8">
-        <v>0</v>
-      </c>
-      <c r="L88" s="8">
-        <v>0</v>
-      </c>
-      <c r="M88" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I88" s="6">
+        <v>0</v>
+      </c>
+      <c r="J88" s="6">
+        <v>0</v>
+      </c>
+      <c r="K88" s="6">
+        <v>0</v>
+      </c>
+      <c r="L88" s="6">
+        <v>0</v>
+      </c>
+      <c r="M88" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>1995</v>
       </c>
@@ -4925,23 +4925,23 @@
       <c r="H89" s="2">
         <v>0</v>
       </c>
-      <c r="I89" s="8">
-        <v>0</v>
-      </c>
-      <c r="J89" s="8">
-        <v>0</v>
-      </c>
-      <c r="K89" s="8">
-        <v>0</v>
-      </c>
-      <c r="L89" s="8">
-        <v>0</v>
-      </c>
-      <c r="M89" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I89" s="6">
+        <v>0</v>
+      </c>
+      <c r="J89" s="6">
+        <v>0</v>
+      </c>
+      <c r="K89" s="6">
+        <v>0</v>
+      </c>
+      <c r="L89" s="6">
+        <v>0</v>
+      </c>
+      <c r="M89" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>1996</v>
       </c>
@@ -4966,23 +4966,23 @@
       <c r="H90" s="2">
         <v>0</v>
       </c>
-      <c r="I90" s="8">
-        <v>0</v>
-      </c>
-      <c r="J90" s="8">
-        <v>0</v>
-      </c>
-      <c r="K90" s="8">
-        <v>0</v>
-      </c>
-      <c r="L90" s="8">
-        <v>0</v>
-      </c>
-      <c r="M90" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I90" s="6">
+        <v>0</v>
+      </c>
+      <c r="J90" s="6">
+        <v>0</v>
+      </c>
+      <c r="K90" s="6">
+        <v>0</v>
+      </c>
+      <c r="L90" s="6">
+        <v>0</v>
+      </c>
+      <c r="M90" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>1997</v>
       </c>
@@ -5007,23 +5007,23 @@
       <c r="H91" s="2">
         <v>0</v>
       </c>
-      <c r="I91" s="8">
-        <v>0</v>
-      </c>
-      <c r="J91" s="8">
-        <v>0</v>
-      </c>
-      <c r="K91" s="8">
-        <v>0</v>
-      </c>
-      <c r="L91" s="8">
-        <v>0</v>
-      </c>
-      <c r="M91" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I91" s="6">
+        <v>0</v>
+      </c>
+      <c r="J91" s="6">
+        <v>0</v>
+      </c>
+      <c r="K91" s="6">
+        <v>0</v>
+      </c>
+      <c r="L91" s="6">
+        <v>0</v>
+      </c>
+      <c r="M91" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>1998</v>
       </c>
@@ -5048,23 +5048,23 @@
       <c r="H92" s="2">
         <v>0</v>
       </c>
-      <c r="I92" s="8">
-        <v>0</v>
-      </c>
-      <c r="J92" s="8">
-        <v>0</v>
-      </c>
-      <c r="K92" s="8">
-        <v>0</v>
-      </c>
-      <c r="L92" s="8">
-        <v>0</v>
-      </c>
-      <c r="M92" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I92" s="6">
+        <v>0</v>
+      </c>
+      <c r="J92" s="6">
+        <v>0</v>
+      </c>
+      <c r="K92" s="6">
+        <v>0</v>
+      </c>
+      <c r="L92" s="6">
+        <v>0</v>
+      </c>
+      <c r="M92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>1999</v>
       </c>
@@ -5089,23 +5089,23 @@
       <c r="H93" s="2">
         <v>0</v>
       </c>
-      <c r="I93" s="8">
-        <v>0</v>
-      </c>
-      <c r="J93" s="8">
+      <c r="I93" s="6">
+        <v>0</v>
+      </c>
+      <c r="J93" s="6">
         <v>38329.203200000004</v>
       </c>
-      <c r="K93" s="8">
-        <v>0</v>
-      </c>
-      <c r="L93" s="8">
-        <v>0</v>
-      </c>
-      <c r="M93" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K93" s="6">
+        <v>0</v>
+      </c>
+      <c r="L93" s="6">
+        <v>0</v>
+      </c>
+      <c r="M93" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>2000</v>
       </c>
@@ -5130,23 +5130,23 @@
       <c r="H94" s="2">
         <v>0</v>
       </c>
-      <c r="I94" s="8">
-        <v>0</v>
-      </c>
-      <c r="J94" s="8">
+      <c r="I94" s="6">
+        <v>0</v>
+      </c>
+      <c r="J94" s="6">
         <v>81859.025800000003</v>
       </c>
-      <c r="K94" s="8">
-        <v>0</v>
-      </c>
-      <c r="L94" s="8">
-        <v>0</v>
-      </c>
-      <c r="M94" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K94" s="6">
+        <v>0</v>
+      </c>
+      <c r="L94" s="6">
+        <v>0</v>
+      </c>
+      <c r="M94" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>2001</v>
       </c>
@@ -5171,23 +5171,23 @@
       <c r="H95" s="2">
         <v>0</v>
       </c>
-      <c r="I95" s="8">
-        <v>0</v>
-      </c>
-      <c r="J95" s="8">
+      <c r="I95" s="6">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6">
         <v>155349.2549</v>
       </c>
-      <c r="K95" s="8">
-        <v>0</v>
-      </c>
-      <c r="L95" s="8">
-        <v>0</v>
-      </c>
-      <c r="M95" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K95" s="6">
+        <v>0</v>
+      </c>
+      <c r="L95" s="6">
+        <v>0</v>
+      </c>
+      <c r="M95" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>2002</v>
       </c>
@@ -5212,23 +5212,23 @@
       <c r="H96" s="2">
         <v>0</v>
       </c>
-      <c r="I96" s="8">
-        <v>0</v>
-      </c>
-      <c r="J96" s="8">
+      <c r="I96" s="6">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6">
         <v>190210.93819999998</v>
       </c>
-      <c r="K96" s="8">
-        <v>0</v>
-      </c>
-      <c r="L96" s="8">
-        <v>0</v>
-      </c>
-      <c r="M96" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K96" s="6">
+        <v>0</v>
+      </c>
+      <c r="L96" s="6">
+        <v>0</v>
+      </c>
+      <c r="M96" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>2003</v>
       </c>
@@ -5253,23 +5253,23 @@
       <c r="H97" s="2">
         <v>0</v>
       </c>
-      <c r="I97" s="8">
-        <v>0</v>
-      </c>
-      <c r="J97" s="8">
+      <c r="I97" s="6">
+        <v>0</v>
+      </c>
+      <c r="J97" s="6">
         <v>209970.40569999997</v>
       </c>
-      <c r="K97" s="8">
-        <v>0</v>
-      </c>
-      <c r="L97" s="8">
-        <v>0</v>
-      </c>
-      <c r="M97" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K97" s="6">
+        <v>0</v>
+      </c>
+      <c r="L97" s="6">
+        <v>0</v>
+      </c>
+      <c r="M97" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>2004</v>
       </c>
@@ -5294,23 +5294,23 @@
       <c r="H98" s="2">
         <v>0</v>
       </c>
-      <c r="I98" s="8">
-        <v>0</v>
-      </c>
-      <c r="J98" s="8">
+      <c r="I98" s="6">
+        <v>0</v>
+      </c>
+      <c r="J98" s="6">
         <v>245875.68210000001</v>
       </c>
-      <c r="K98" s="8">
-        <v>0</v>
-      </c>
-      <c r="L98" s="8">
-        <v>0</v>
-      </c>
-      <c r="M98" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K98" s="6">
+        <v>0</v>
+      </c>
+      <c r="L98" s="6">
+        <v>0</v>
+      </c>
+      <c r="M98" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>2005</v>
       </c>
@@ -5335,23 +5335,23 @@
       <c r="H99" s="2">
         <v>0</v>
       </c>
-      <c r="I99" s="8">
-        <v>0</v>
-      </c>
-      <c r="J99" s="8">
+      <c r="I99" s="6">
+        <v>0</v>
+      </c>
+      <c r="J99" s="6">
         <v>279795.42859999998</v>
       </c>
-      <c r="K99" s="8">
-        <v>0</v>
-      </c>
-      <c r="L99" s="8">
-        <v>0</v>
-      </c>
-      <c r="M99" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K99" s="6">
+        <v>0</v>
+      </c>
+      <c r="L99" s="6">
+        <v>0</v>
+      </c>
+      <c r="M99" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>2006</v>
       </c>
@@ -5376,23 +5376,23 @@
       <c r="H100" s="2">
         <v>0</v>
       </c>
-      <c r="I100" s="8">
-        <v>0</v>
-      </c>
-      <c r="J100" s="8">
+      <c r="I100" s="6">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6">
         <v>380261.27020000003</v>
       </c>
-      <c r="K100" s="8">
-        <v>0</v>
-      </c>
-      <c r="L100" s="8">
-        <v>0</v>
-      </c>
-      <c r="M100" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K100" s="6">
+        <v>0</v>
+      </c>
+      <c r="L100" s="6">
+        <v>0</v>
+      </c>
+      <c r="M100" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>2007</v>
       </c>
@@ -5417,23 +5417,23 @@
       <c r="H101" s="2">
         <v>0</v>
       </c>
-      <c r="I101" s="8">
-        <v>0</v>
-      </c>
-      <c r="J101" s="8">
+      <c r="I101" s="6">
+        <v>0</v>
+      </c>
+      <c r="J101" s="6">
         <v>482068.76949999999</v>
       </c>
-      <c r="K101" s="8">
-        <v>0</v>
-      </c>
-      <c r="L101" s="8">
-        <v>0</v>
-      </c>
-      <c r="M101" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K101" s="6">
+        <v>0</v>
+      </c>
+      <c r="L101" s="6">
+        <v>0</v>
+      </c>
+      <c r="M101" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>2008</v>
       </c>
@@ -5458,23 +5458,23 @@
       <c r="H102" s="2">
         <v>0</v>
       </c>
-      <c r="I102" s="8">
-        <v>0</v>
-      </c>
-      <c r="J102" s="8">
+      <c r="I102" s="6">
+        <v>0</v>
+      </c>
+      <c r="J102" s="6">
         <v>643547.95380000002</v>
       </c>
-      <c r="K102" s="8">
-        <v>0</v>
-      </c>
-      <c r="L102" s="8">
-        <v>0</v>
-      </c>
-      <c r="M102" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K102" s="6">
+        <v>0</v>
+      </c>
+      <c r="L102" s="6">
+        <v>0</v>
+      </c>
+      <c r="M102" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>2009</v>
       </c>
@@ -5499,23 +5499,23 @@
       <c r="H103" s="2">
         <v>0</v>
       </c>
-      <c r="I103" s="8">
-        <v>0</v>
-      </c>
-      <c r="J103" s="8">
+      <c r="I103" s="6">
+        <v>0</v>
+      </c>
+      <c r="J103" s="6">
         <v>757469.78399999999</v>
       </c>
-      <c r="K103" s="8">
-        <v>0</v>
-      </c>
-      <c r="L103" s="8">
-        <v>0</v>
-      </c>
-      <c r="M103" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K103" s="6">
+        <v>0</v>
+      </c>
+      <c r="L103" s="6">
+        <v>0</v>
+      </c>
+      <c r="M103" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>2010</v>
       </c>
@@ -5540,23 +5540,23 @@
       <c r="H104" s="2">
         <v>0</v>
       </c>
-      <c r="I104" s="8">
-        <v>0</v>
-      </c>
-      <c r="J104" s="8">
+      <c r="I104" s="6">
+        <v>0</v>
+      </c>
+      <c r="J104" s="6">
         <v>1000072.309</v>
       </c>
-      <c r="K104" s="8">
-        <v>0</v>
-      </c>
-      <c r="L104" s="8">
-        <v>0</v>
-      </c>
-      <c r="M104" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K104" s="6">
+        <v>0</v>
+      </c>
+      <c r="L104" s="6">
+        <v>0</v>
+      </c>
+      <c r="M104" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>2011</v>
       </c>
@@ -5581,23 +5581,23 @@
       <c r="H105" s="2">
         <v>0</v>
       </c>
-      <c r="I105" s="8">
-        <v>0</v>
-      </c>
-      <c r="J105" s="8">
+      <c r="I105" s="6">
+        <v>0</v>
+      </c>
+      <c r="J105" s="6">
         <v>1318194.9702999999</v>
       </c>
-      <c r="K105" s="8">
-        <v>0</v>
-      </c>
-      <c r="L105" s="8">
-        <v>0</v>
-      </c>
-      <c r="M105" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K105" s="6">
+        <v>0</v>
+      </c>
+      <c r="L105" s="6">
+        <v>0</v>
+      </c>
+      <c r="M105" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>2012</v>
       </c>
@@ -5622,23 +5622,23 @@
       <c r="H106" s="2">
         <v>0</v>
       </c>
-      <c r="I106" s="8">
-        <v>0</v>
-      </c>
-      <c r="J106" s="8">
+      <c r="I106" s="6">
+        <v>0</v>
+      </c>
+      <c r="J106" s="6">
         <v>1582967.4031</v>
       </c>
-      <c r="K106" s="8">
-        <v>0</v>
-      </c>
-      <c r="L106" s="8">
-        <v>0</v>
-      </c>
-      <c r="M106" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K106" s="6">
+        <v>0</v>
+      </c>
+      <c r="L106" s="6">
+        <v>0</v>
+      </c>
+      <c r="M106" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>2013</v>
       </c>
@@ -5663,23 +5663,23 @@
       <c r="H107" s="2">
         <v>0</v>
       </c>
-      <c r="I107" s="8">
-        <v>0</v>
-      </c>
-      <c r="J107" s="8">
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
+      <c r="J107" s="6">
         <v>1868116.5939</v>
       </c>
-      <c r="K107" s="8">
-        <v>0</v>
-      </c>
-      <c r="L107" s="8">
-        <v>0</v>
-      </c>
-      <c r="M107" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K107" s="6">
+        <v>0</v>
+      </c>
+      <c r="L107" s="6">
+        <v>0</v>
+      </c>
+      <c r="M107" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>2014</v>
       </c>
@@ -5704,23 +5704,23 @@
       <c r="H108" s="2">
         <v>0</v>
       </c>
-      <c r="I108" s="8">
-        <v>0</v>
-      </c>
-      <c r="J108" s="8">
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+      <c r="J108" s="6">
         <v>2337373.9161</v>
       </c>
-      <c r="K108" s="8">
-        <v>0</v>
-      </c>
-      <c r="L108" s="8">
-        <v>0</v>
-      </c>
-      <c r="M108" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K108" s="6">
+        <v>0</v>
+      </c>
+      <c r="L108" s="6">
+        <v>0</v>
+      </c>
+      <c r="M108" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>2015</v>
       </c>
@@ -5745,23 +5745,23 @@
       <c r="H109" s="2">
         <v>0</v>
       </c>
-      <c r="I109" s="8">
-        <v>0</v>
-      </c>
-      <c r="J109" s="8">
+      <c r="I109" s="6">
+        <v>0</v>
+      </c>
+      <c r="J109" s="6">
         <v>2588758.8488000003</v>
       </c>
-      <c r="K109" s="8">
-        <v>0</v>
-      </c>
-      <c r="L109" s="8">
-        <v>0</v>
-      </c>
-      <c r="M109" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K109" s="6">
+        <v>0</v>
+      </c>
+      <c r="L109" s="6">
+        <v>0</v>
+      </c>
+      <c r="M109" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>2016</v>
       </c>
@@ -5786,23 +5786,23 @@
       <c r="H110" s="2">
         <v>0</v>
       </c>
-      <c r="I110" s="8">
-        <v>0</v>
-      </c>
-      <c r="J110" s="8">
+      <c r="I110" s="6">
+        <v>0</v>
+      </c>
+      <c r="J110" s="6">
         <v>2869460.4432999999</v>
       </c>
-      <c r="K110" s="8">
-        <v>0</v>
-      </c>
-      <c r="L110" s="8">
-        <v>0</v>
-      </c>
-      <c r="M110" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K110" s="6">
+        <v>0</v>
+      </c>
+      <c r="L110" s="6">
+        <v>0</v>
+      </c>
+      <c r="M110" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1990</v>
       </c>
@@ -5827,23 +5827,23 @@
       <c r="H111" s="2">
         <v>0</v>
       </c>
-      <c r="I111" s="8">
+      <c r="I111" s="6">
         <v>30405604.6261</v>
       </c>
-      <c r="J111" s="8">
+      <c r="J111" s="6">
         <v>2884057.6990999999</v>
       </c>
-      <c r="K111" s="8">
+      <c r="K111" s="6">
         <v>200469.71890000001</v>
       </c>
-      <c r="L111" s="8">
+      <c r="L111" s="6">
         <v>-50277727.809199996</v>
       </c>
-      <c r="M111" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M111" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>1991</v>
       </c>
@@ -5868,23 +5868,23 @@
       <c r="H112" s="2">
         <v>0</v>
       </c>
-      <c r="I112" s="8">
+      <c r="I112" s="6">
         <v>28899077.6336</v>
       </c>
-      <c r="J112" s="8">
+      <c r="J112" s="6">
         <v>3236276.3183042998</v>
       </c>
-      <c r="K112" s="8">
+      <c r="K112" s="6">
         <v>225531.05840000001</v>
       </c>
-      <c r="L112" s="8">
+      <c r="L112" s="6">
         <v>-46551763.577700004</v>
       </c>
-      <c r="M112" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M112" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>1992</v>
       </c>
@@ -5909,23 +5909,23 @@
       <c r="H113" s="2">
         <v>0</v>
       </c>
-      <c r="I113" s="8">
+      <c r="I113" s="6">
         <v>29889254.532399997</v>
       </c>
-      <c r="J113" s="8">
+      <c r="J113" s="6">
         <v>3756950.6695348001</v>
       </c>
-      <c r="K113" s="8">
+      <c r="K113" s="6">
         <v>244781.05679999999</v>
       </c>
-      <c r="L113" s="8">
+      <c r="L113" s="6">
         <v>-49465384.030100003</v>
       </c>
-      <c r="M113" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M113" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>1993</v>
       </c>
@@ -5950,23 +5950,23 @@
       <c r="H114" s="2">
         <v>0</v>
       </c>
-      <c r="I114" s="8">
+      <c r="I114" s="6">
         <v>32198766.966499999</v>
       </c>
-      <c r="J114" s="8">
+      <c r="J114" s="6">
         <v>3912817.6880955999</v>
       </c>
-      <c r="K114" s="8">
+      <c r="K114" s="6">
         <v>247930.48759999999</v>
       </c>
-      <c r="L114" s="8">
+      <c r="L114" s="6">
         <v>-49600411.5955</v>
       </c>
-      <c r="M114" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M114" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>1994</v>
       </c>
@@ -5991,23 +5991,23 @@
       <c r="H115" s="2">
         <v>0</v>
       </c>
-      <c r="I115" s="8">
+      <c r="I115" s="6">
         <v>34632066.710000001</v>
       </c>
-      <c r="J115" s="8">
+      <c r="J115" s="6">
         <v>3853690.1618348002</v>
       </c>
-      <c r="K115" s="8">
+      <c r="K115" s="6">
         <v>239071.30599999998</v>
       </c>
-      <c r="L115" s="8">
+      <c r="L115" s="6">
         <v>-46347167.4177</v>
       </c>
-      <c r="M115" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M115" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>1995</v>
       </c>
@@ -6032,23 +6032,23 @@
       <c r="H116" s="2">
         <v>0</v>
       </c>
-      <c r="I116" s="8">
+      <c r="I116" s="6">
         <v>37622225.612499997</v>
       </c>
-      <c r="J116" s="8">
+      <c r="J116" s="6">
         <v>3672154.7091957</v>
       </c>
-      <c r="K116" s="8">
+      <c r="K116" s="6">
         <v>263804.88400000002</v>
       </c>
-      <c r="L116" s="8">
+      <c r="L116" s="6">
         <v>-52243201.801600002</v>
       </c>
-      <c r="M116" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M116" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>1996</v>
       </c>
@@ -6073,23 +6073,23 @@
       <c r="H117" s="2">
         <v>4.7733699999999997E-2</v>
       </c>
-      <c r="I117" s="8">
+      <c r="I117" s="6">
         <v>43406394.060199998</v>
       </c>
-      <c r="J117" s="8">
+      <c r="J117" s="6">
         <v>3859682.720487</v>
       </c>
-      <c r="K117" s="8">
+      <c r="K117" s="6">
         <v>341960.04180000001</v>
       </c>
-      <c r="L117" s="8">
+      <c r="L117" s="6">
         <v>-51667076.283100002</v>
       </c>
-      <c r="M117" s="8">
+      <c r="M117" s="6">
         <v>47.733699999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>1997</v>
       </c>
@@ -6114,23 +6114,23 @@
       <c r="H118" s="2">
         <v>5.3802500000000003E-2</v>
       </c>
-      <c r="I118" s="8">
+      <c r="I118" s="6">
         <v>50024562.151900001</v>
       </c>
-      <c r="J118" s="8">
+      <c r="J118" s="6">
         <v>4126997.0752391</v>
       </c>
-      <c r="K118" s="8">
+      <c r="K118" s="6">
         <v>257230.57069999998</v>
       </c>
-      <c r="L118" s="8">
+      <c r="L118" s="6">
         <v>-54672696.310400002</v>
       </c>
-      <c r="M118" s="8">
+      <c r="M118" s="6">
         <v>53.802500000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>1998</v>
       </c>
@@ -6155,23 +6155,23 @@
       <c r="H119" s="2">
         <v>6.0642799999999997E-2</v>
       </c>
-      <c r="I119" s="8">
+      <c r="I119" s="6">
         <v>50508821.286600001</v>
       </c>
-      <c r="J119" s="8">
+      <c r="J119" s="6">
         <v>4545394.0146042993</v>
       </c>
-      <c r="K119" s="8">
+      <c r="K119" s="6">
         <v>295582.23570000002</v>
       </c>
-      <c r="L119" s="8">
+      <c r="L119" s="6">
         <v>-37918840.5832</v>
       </c>
-      <c r="M119" s="8">
+      <c r="M119" s="6">
         <v>60.642799999999994</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>1999</v>
       </c>
@@ -6196,23 +6196,23 @@
       <c r="H120" s="2">
         <v>6.8352700000000002E-2</v>
       </c>
-      <c r="I120" s="8">
+      <c r="I120" s="6">
         <v>53051002.392100006</v>
       </c>
-      <c r="J120" s="8">
+      <c r="J120" s="6">
         <v>4800893.2226216998</v>
       </c>
-      <c r="K120" s="8">
+      <c r="K120" s="6">
         <v>329170.47739999997</v>
       </c>
-      <c r="L120" s="8">
+      <c r="L120" s="6">
         <v>-49926303.162799999</v>
       </c>
-      <c r="M120" s="8">
+      <c r="M120" s="6">
         <v>68.352699999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>2000</v>
       </c>
@@ -6237,23 +6237,23 @@
       <c r="H121" s="2">
         <v>7.7042899999999997E-2</v>
       </c>
-      <c r="I121" s="8">
+      <c r="I121" s="6">
         <v>49366981.357899994</v>
       </c>
-      <c r="J121" s="8">
+      <c r="J121" s="6">
         <v>5383337.0945130996</v>
       </c>
-      <c r="K121" s="8">
+      <c r="K121" s="6">
         <v>366495.22139999998</v>
       </c>
-      <c r="L121" s="8">
+      <c r="L121" s="6">
         <v>-62772713.789399996</v>
       </c>
-      <c r="M121" s="8">
+      <c r="M121" s="6">
         <v>77.042900000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>2001</v>
       </c>
@@ -6278,23 +6278,23 @@
       <c r="H122" s="2">
         <v>8.6837899999999996E-2</v>
       </c>
-      <c r="I122" s="8">
+      <c r="I122" s="6">
         <v>47222808.927600004</v>
       </c>
-      <c r="J122" s="8">
+      <c r="J122" s="6">
         <v>5262267.2408608999</v>
       </c>
-      <c r="K122" s="8">
+      <c r="K122" s="6">
         <v>340933.21680000005</v>
       </c>
-      <c r="L122" s="8">
+      <c r="L122" s="6">
         <v>-64423863.861400001</v>
       </c>
-      <c r="M122" s="8">
+      <c r="M122" s="6">
         <v>86.837899999999991</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2002</v>
       </c>
@@ -6319,23 +6319,23 @@
       <c r="H123" s="2">
         <v>9.7878199999999999E-2</v>
       </c>
-      <c r="I123" s="8">
+      <c r="I123" s="6">
         <v>47987275.492899999</v>
       </c>
-      <c r="J123" s="8">
+      <c r="J123" s="6">
         <v>5404512.1528522</v>
       </c>
-      <c r="K123" s="8">
+      <c r="K123" s="6">
         <v>388782.03470000002</v>
       </c>
-      <c r="L123" s="8">
+      <c r="L123" s="6">
         <v>-56695393.399999999</v>
       </c>
-      <c r="M123" s="8">
+      <c r="M123" s="6">
         <v>97.878199999999993</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>2003</v>
       </c>
@@ -6360,23 +6360,23 @@
       <c r="H124" s="2">
         <v>0.1103222</v>
       </c>
-      <c r="I124" s="8">
+      <c r="I124" s="6">
         <v>48772414.127999999</v>
       </c>
-      <c r="J124" s="8">
+      <c r="J124" s="6">
         <v>5405603.1246565003</v>
       </c>
-      <c r="K124" s="8">
+      <c r="K124" s="6">
         <v>420845.77480000001</v>
       </c>
-      <c r="L124" s="8">
+      <c r="L124" s="6">
         <v>-73044671.094899997</v>
       </c>
-      <c r="M124" s="8">
+      <c r="M124" s="6">
         <v>110.3222</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>2004</v>
       </c>
@@ -6401,23 +6401,23 @@
       <c r="H125" s="2">
         <v>0.12434820000000001</v>
       </c>
-      <c r="I125" s="8">
+      <c r="I125" s="6">
         <v>53370028.919</v>
       </c>
-      <c r="J125" s="8">
+      <c r="J125" s="6">
         <v>5728507.5250682002</v>
       </c>
-      <c r="K125" s="8">
+      <c r="K125" s="6">
         <v>440428.06280000001</v>
       </c>
-      <c r="L125" s="8">
+      <c r="L125" s="6">
         <v>-67069148.533100002</v>
       </c>
-      <c r="M125" s="8">
+      <c r="M125" s="6">
         <v>124.34820000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>2005</v>
       </c>
@@ -6442,23 +6442,23 @@
       <c r="H126" s="2">
         <v>0.14015749999999999</v>
       </c>
-      <c r="I126" s="8">
+      <c r="I126" s="6">
         <v>54779296.360799998</v>
       </c>
-      <c r="J126" s="8">
+      <c r="J126" s="6">
         <v>5808263.5084074996</v>
       </c>
-      <c r="K126" s="8">
+      <c r="K126" s="6">
         <v>376540.97070000001</v>
       </c>
-      <c r="L126" s="8">
+      <c r="L126" s="6">
         <v>-66325810.056100003</v>
       </c>
-      <c r="M126" s="8">
+      <c r="M126" s="6">
         <v>140.1575</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>2006</v>
       </c>
@@ -6483,23 +6483,23 @@
       <c r="H127" s="2">
         <v>0.1579768</v>
       </c>
-      <c r="I127" s="8">
+      <c r="I127" s="6">
         <v>55691695.8046</v>
       </c>
-      <c r="J127" s="8">
+      <c r="J127" s="6">
         <v>6073554.2337337006</v>
       </c>
-      <c r="K127" s="8">
+      <c r="K127" s="6">
         <v>395976.69180000003</v>
       </c>
-      <c r="L127" s="8">
+      <c r="L127" s="6">
         <v>-70033010.55839999</v>
       </c>
-      <c r="M127" s="8">
+      <c r="M127" s="6">
         <v>157.9768</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>2007</v>
       </c>
@@ -6524,23 +6524,23 @@
       <c r="H128" s="2">
         <v>0.17806150000000001</v>
       </c>
-      <c r="I128" s="8">
+      <c r="I128" s="6">
         <v>65389285.548900001</v>
       </c>
-      <c r="J128" s="8">
+      <c r="J128" s="6">
         <v>5240650.4247265998</v>
       </c>
-      <c r="K128" s="8">
+      <c r="K128" s="6">
         <v>395021.62019999995</v>
       </c>
-      <c r="L128" s="8">
+      <c r="L128" s="6">
         <v>-56602342.7742</v>
       </c>
-      <c r="M128" s="8">
+      <c r="M128" s="6">
         <v>178.06150000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>2008</v>
       </c>
@@ -6565,23 +6565,23 @@
       <c r="H129" s="2">
         <v>0.20069980000000001</v>
       </c>
-      <c r="I129" s="8">
+      <c r="I129" s="6">
         <v>66756933.551700003</v>
       </c>
-      <c r="J129" s="8">
+      <c r="J129" s="6">
         <v>4781119.1678182008</v>
       </c>
-      <c r="K129" s="8">
+      <c r="K129" s="6">
         <v>431455.42330000002</v>
       </c>
-      <c r="L129" s="8">
+      <c r="L129" s="6">
         <v>-58471920.131300002</v>
       </c>
-      <c r="M129" s="8">
+      <c r="M129" s="6">
         <v>200.69980000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>2009</v>
       </c>
@@ -6606,23 +6606,23 @@
       <c r="H130" s="2">
         <v>0.22621620000000001</v>
       </c>
-      <c r="I130" s="8">
+      <c r="I130" s="6">
         <v>64397067.811499998</v>
       </c>
-      <c r="J130" s="8">
+      <c r="J130" s="6">
         <v>4064295.7407752001</v>
       </c>
-      <c r="K130" s="8">
+      <c r="K130" s="6">
         <v>392168.79390000005</v>
       </c>
-      <c r="L130" s="8">
+      <c r="L130" s="6">
         <v>-62976702.243000001</v>
       </c>
-      <c r="M130" s="8">
+      <c r="M130" s="6">
         <v>226.21620000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>2010</v>
       </c>
@@ -6647,23 +6647,23 @@
       <c r="H131" s="2">
         <v>0.2549767</v>
       </c>
-      <c r="I131" s="8">
+      <c r="I131" s="6">
         <v>65978095.219900005</v>
       </c>
-      <c r="J131" s="8">
+      <c r="J131" s="6">
         <v>3688642.6233468</v>
       </c>
-      <c r="K131" s="8">
+      <c r="K131" s="6">
         <v>470108.58050000004</v>
       </c>
-      <c r="L131" s="8">
+      <c r="L131" s="6">
         <v>-72217482.275100008</v>
       </c>
-      <c r="M131" s="8">
+      <c r="M131" s="6">
         <v>254.97669999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>2011</v>
       </c>
@@ -6688,23 +6688,23 @@
       <c r="H132" s="2">
         <v>0.28739369999999997</v>
       </c>
-      <c r="I132" s="8">
+      <c r="I132" s="6">
         <v>73651077.905200005</v>
       </c>
-      <c r="J132" s="8">
+      <c r="J132" s="6">
         <v>4249001.0679960996</v>
       </c>
-      <c r="K132" s="8">
+      <c r="K132" s="6">
         <v>489166.33799999999</v>
       </c>
-      <c r="L132" s="8">
+      <c r="L132" s="6">
         <v>-65662202.602300011</v>
       </c>
-      <c r="M132" s="8">
+      <c r="M132" s="6">
         <v>287.39369999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>2012</v>
       </c>
@@ -6729,23 +6729,23 @@
       <c r="H133" s="2">
         <v>0.3198107</v>
       </c>
-      <c r="I133" s="8">
+      <c r="I133" s="6">
         <v>77451440.441700011</v>
       </c>
-      <c r="J133" s="8">
+      <c r="J133" s="6">
         <v>4248924.0005857004</v>
       </c>
-      <c r="K133" s="8">
+      <c r="K133" s="6">
         <v>485504.30920000002</v>
       </c>
-      <c r="L133" s="8">
+      <c r="L133" s="6">
         <v>-62018044.265099995</v>
       </c>
-      <c r="M133" s="8">
+      <c r="M133" s="6">
         <v>319.8107</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>2013</v>
       </c>
@@ -6770,23 +6770,23 @@
       <c r="H134" s="2">
         <v>0.32260800000000001</v>
       </c>
-      <c r="I134" s="8">
+      <c r="I134" s="6">
         <v>77018348.398100004</v>
       </c>
-      <c r="J134" s="8">
+      <c r="J134" s="6">
         <v>3479687.4255031999</v>
       </c>
-      <c r="K134" s="8">
+      <c r="K134" s="6">
         <v>509320.57789999997</v>
       </c>
-      <c r="L134" s="8">
+      <c r="L134" s="6">
         <v>-71951381.61559999</v>
       </c>
-      <c r="M134" s="8">
+      <c r="M134" s="6">
         <v>322.608</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>2014</v>
       </c>
@@ -6811,23 +6811,23 @@
       <c r="H135" s="2">
         <v>0.38480160000000002</v>
       </c>
-      <c r="I135" s="8">
+      <c r="I135" s="6">
         <v>74430394.618200004</v>
       </c>
-      <c r="J135" s="8">
+      <c r="J135" s="6">
         <v>3119733.5011743</v>
       </c>
-      <c r="K135" s="8">
+      <c r="K135" s="6">
         <v>481727.31190000003</v>
       </c>
-      <c r="L135" s="8">
+      <c r="L135" s="6">
         <v>-56407775.963100001</v>
       </c>
-      <c r="M135" s="8">
+      <c r="M135" s="6">
         <v>384.80160000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>2015</v>
       </c>
@@ -6852,23 +6852,23 @@
       <c r="H136" s="2">
         <v>0.45285239999999999</v>
       </c>
-      <c r="I136" s="8">
+      <c r="I136" s="6">
         <v>80837031.775900006</v>
       </c>
-      <c r="J136" s="8">
+      <c r="J136" s="6">
         <v>3199968.9907542001</v>
       </c>
-      <c r="K136" s="8">
+      <c r="K136" s="6">
         <v>528088.53559999994</v>
       </c>
-      <c r="L136" s="8">
+      <c r="L136" s="6">
         <v>-46136842.452299997</v>
       </c>
-      <c r="M136" s="8">
+      <c r="M136" s="6">
         <v>452.85239999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>2016</v>
       </c>
@@ -6893,19 +6893,19 @@
       <c r="H137" s="2">
         <v>0.50380270000000005</v>
       </c>
-      <c r="I137" s="8">
+      <c r="I137" s="6">
         <v>84120987.616900012</v>
       </c>
-      <c r="J137" s="8">
+      <c r="J137" s="6">
         <v>3322495.9546888</v>
       </c>
-      <c r="K137" s="8">
+      <c r="K137" s="6">
         <v>445351.76990000001</v>
       </c>
-      <c r="L137" s="8">
+      <c r="L137" s="6">
         <v>-65702953.072999999</v>
       </c>
-      <c r="M137" s="8">
+      <c r="M137" s="6">
         <v>503.80270000000007</v>
       </c>
     </row>

--- a/CHILE/00 Causas Antropógenas/Por Sector/Emisiones CONSOLIDADO Chile 1990-2016.xlsx
+++ b/CHILE/00 Causas Antropógenas/Por Sector/Emisiones CONSOLIDADO Chile 1990-2016.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\CHILE\00 Causas Antropógenas\Por Sector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7CE02F-AD81-49C7-9C87-495C18E0076F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4042A8C6-2707-4FDE-94CD-CE59AB2496AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -620,13 +609,13 @@
     <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -691,6 +680,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -710,6 +700,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -729,6 +720,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -748,6 +740,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -767,6 +760,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1303,7 +1297,7 @@
   <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K144" sqref="K144"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,16 +1313,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" t="s">
         <v>14</v>
       </c>
@@ -1399,19 +1393,19 @@
       <c r="H3" s="2">
         <v>111.5023187</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="8">
         <v>2952210.2774999999</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="8">
         <v>54325.599999999991</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="8">
         <v>7100428.4950000001</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="8">
         <v>130391.90249999998</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="8">
         <v>2787557.9674999998</v>
       </c>
     </row>
@@ -1440,19 +1434,19 @@
       <c r="H4" s="2">
         <v>113.8715332</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="8">
         <v>2631709.73</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="8">
         <v>44986.277499999997</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="8">
         <v>7177985.9225000003</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="8">
         <v>200938.38000000003</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="8">
         <v>2846788.33</v>
       </c>
     </row>
@@ -1481,19 +1475,19 @@
       <c r="H5" s="2">
         <v>116.1732808</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="8">
         <v>2507950.5250000004</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="8">
         <v>52938.474999999999</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="8">
         <v>7375621.7250000006</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="8">
         <v>86778.175000000003</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="8">
         <v>2904332.02</v>
       </c>
     </row>
@@ -1522,19 +1516,19 @@
       <c r="H6" s="2">
         <v>118.06127619999999</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="8">
         <v>2416374.3174999999</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="8">
         <v>50908.54</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="8">
         <v>7608723.6875</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="8">
         <v>194454.70499999999</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="8">
         <v>2951531.9049999998</v>
       </c>
     </row>
@@ -1563,19 +1557,19 @@
       <c r="H7" s="2">
         <v>121.6396179</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="8">
         <v>2437831.585</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="8">
         <v>54752.04</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="8">
         <v>7869199.6299999999</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="8">
         <v>293703.66499999998</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="8">
         <v>3040990.4475000002</v>
       </c>
     </row>
@@ -1604,19 +1598,19 @@
       <c r="H8" s="2">
         <v>126.907425</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="8">
         <v>2243723.7875000001</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="8">
         <v>53377.3</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="8">
         <v>8013901.9799999995</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="8">
         <v>97640.032499999987</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="8">
         <v>3172685.625</v>
       </c>
     </row>
@@ -1645,19 +1639,19 @@
       <c r="H9" s="2">
         <v>131.01051409999999</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="8">
         <v>2226590.9750000001</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="8">
         <v>54501.575000000004</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="8">
         <v>8072330.9249999998</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="8">
         <v>240472.15999999997</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="8">
         <v>3275262.8525</v>
       </c>
     </row>
@@ -1686,19 +1680,19 @@
       <c r="H10" s="2">
         <v>134.18920739999999</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="8">
         <v>2231986.2024999997</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="8">
         <v>97943.1</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="8">
         <v>8463204.5199999996</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="8">
         <v>190175.83</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="8">
         <v>3354730.1849999996</v>
       </c>
     </row>
@@ -1727,19 +1721,19 @@
       <c r="H11" s="2">
         <v>136.59405770000001</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="8">
         <v>2191959.6974999998</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="8">
         <v>102247.41249999999</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="8">
         <v>8412162.0749999993</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="8">
         <v>871671.34750000003</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="8">
         <v>3414851.4425000004</v>
       </c>
     </row>
@@ -1768,19 +1762,19 @@
       <c r="H12" s="2">
         <v>139.80603289999999</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="8">
         <v>2343002.5049999999</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="8">
         <v>137305.35</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="8">
         <v>8333349.5499999989</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="8">
         <v>430619.39500000002</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="8">
         <v>3495150.8224999998</v>
       </c>
     </row>
@@ -1809,19 +1803,19 @@
       <c r="H13" s="2">
         <v>143.4082741</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="8">
         <v>2558585.3250000002</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="8">
         <v>171023.29750000002</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="8">
         <v>8308836.0850000009</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="8">
         <v>57884.38</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="8">
         <v>3585206.8525</v>
       </c>
     </row>
@@ -1850,19 +1844,19 @@
       <c r="H14" s="2">
         <v>158.45398890000001</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="8">
         <v>2627155.585</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="8">
         <v>164641.71249999999</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="8">
         <v>8084398.9725000001</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="8">
         <v>40938.154999999992</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="8">
         <v>3961349.7225000001</v>
       </c>
     </row>
@@ -1891,19 +1885,19 @@
       <c r="H15" s="2">
         <v>176.07065879999999</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="8">
         <v>2577253.2075</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="8">
         <v>173215.25499999998</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="8">
         <v>8063043.1125000007</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="8">
         <v>597267.66999999993</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="8">
         <v>4401766.47</v>
       </c>
     </row>
@@ -1932,19 +1926,19 @@
       <c r="H16" s="2">
         <v>183.10021639999999</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="8">
         <v>2460328.9899999998</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="8">
         <v>159422.1575</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="8">
         <v>7963026.8075000001</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="8">
         <v>66525.219999999987</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="8">
         <v>4577505.41</v>
       </c>
     </row>
@@ -1973,19 +1967,19 @@
       <c r="H17" s="2">
         <v>187.22368539999999</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="8">
         <v>2500939.3650000002</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="8">
         <v>159176.08499999999</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="8">
         <v>8053379.4325000001</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="8">
         <v>121739.595</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="8">
         <v>4680592.1349999998</v>
       </c>
     </row>
@@ -2014,19 +2008,19 @@
       <c r="H18" s="2">
         <v>197.64203760000001</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="8">
         <v>2536610.4674999998</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="8">
         <v>177981.61499999999</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="8">
         <v>8093798.7875000006</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="8">
         <v>137454.98250000001</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="8">
         <v>4941050.9400000004</v>
       </c>
     </row>
@@ -2055,19 +2049,19 @@
       <c r="H19" s="2">
         <v>189.1996661</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="8">
         <v>2450505.9374999995</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="8">
         <v>186108.86250000002</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="8">
         <v>8155109.7400000002</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="8">
         <v>67024.742500000008</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="8">
         <v>4729991.6524999999</v>
       </c>
     </row>
@@ -2096,19 +2090,19 @@
       <c r="H20" s="2">
         <v>177.37761420000001</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="8">
         <v>2221962.7200000002</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="8">
         <v>110372.38</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="8">
         <v>8148047.3575000009</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="8">
         <v>305490.1875</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="8">
         <v>4434440.3550000004</v>
       </c>
     </row>
@@ -2137,19 +2131,19 @@
       <c r="H21" s="2">
         <v>169.2183057</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="8">
         <v>2124904.3374999999</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="8">
         <v>67768.107499999998</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="8">
         <v>7839923.29</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="8">
         <v>277051.18</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="8">
         <v>4230457.6425000001</v>
       </c>
     </row>
@@ -2178,19 +2172,19 @@
       <c r="H22" s="2">
         <v>161.11333529999999</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="8">
         <v>2331065.88</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="8">
         <v>59760.21</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="8">
         <v>7497749.4100000001</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="8">
         <v>265765.30249999999</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="8">
         <v>4027833.3824999994</v>
       </c>
     </row>
@@ -2219,19 +2213,19 @@
       <c r="H23" s="2">
         <v>166.97319680000001</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="8">
         <v>1912782.7450000001</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="8">
         <v>57117.680000000008</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="8">
         <v>7246475.5124999993</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="8">
         <v>172109.48749999999</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="8">
         <v>4174329.92</v>
       </c>
     </row>
@@ -2260,19 +2254,19 @@
       <c r="H24" s="2">
         <v>173.1814799</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="8">
         <v>1847556.26</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="8">
         <v>37612.777499999997</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="8">
         <v>7006377.0700000003</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="8">
         <v>87579.925000000003</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="8">
         <v>4329536.9975000005</v>
       </c>
     </row>
@@ -2301,19 +2295,19 @@
       <c r="H25" s="2">
         <v>178.9123324</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="8">
         <v>1898383.9374999998</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="8">
         <v>29575.607500000002</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="8">
         <v>7283754.3874999993</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="8">
         <v>353097.83</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="8">
         <v>4472808.3100000005</v>
       </c>
     </row>
@@ -2342,19 +2336,19 @@
       <c r="H26" s="2">
         <v>199.07544060000001</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="8">
         <v>1930896.9874999998</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="8">
         <v>21045.272499999999</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="8">
         <v>7298720.8075000001</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="8">
         <v>38271.142499999994</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="8">
         <v>4976886.0149999997</v>
       </c>
     </row>
@@ -2383,19 +2377,19 @@
       <c r="H27" s="2">
         <v>202.21503989999999</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="8">
         <v>1918002.4025000003</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="8">
         <v>15698.745000000001</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="8">
         <v>6973813.7750000004</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="8">
         <v>412407.64250000002</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="8">
         <v>5055375.9975000005</v>
       </c>
     </row>
@@ -2424,19 +2418,19 @@
       <c r="H28" s="2">
         <v>215.13195110000001</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="8">
         <v>1820105.7349999999</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="8">
         <v>15009.102499999999</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="8">
         <v>6770516.8125</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="8">
         <v>700803.46499999997</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="8">
         <v>5378298.7774999999</v>
       </c>
     </row>
@@ -2465,19 +2459,19 @@
       <c r="H29" s="2">
         <v>217.4829608</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="8">
         <v>1888252.79</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="8">
         <v>22819.192500000001</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="8">
         <v>6589541.3500000006</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="8">
         <v>126577.14749999999</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="8">
         <v>5437074.0199999996</v>
       </c>
     </row>
@@ -2506,19 +2500,19 @@
       <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="I30" s="6">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6">
+      <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8">
         <v>61328.4159</v>
       </c>
-      <c r="K30" s="6">
-        <v>0</v>
-      </c>
-      <c r="L30" s="6">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2547,19 +2541,19 @@
       <c r="H31" s="2">
         <v>0</v>
       </c>
-      <c r="I31" s="6">
-        <v>0</v>
-      </c>
-      <c r="J31" s="6">
+      <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8">
         <v>43749.966899999999</v>
       </c>
-      <c r="K31" s="6">
-        <v>0</v>
-      </c>
-      <c r="L31" s="6">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6">
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2588,19 +2582,19 @@
       <c r="H32" s="2">
         <v>0</v>
       </c>
-      <c r="I32" s="6">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6">
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8">
         <v>49370.166900000004</v>
       </c>
-      <c r="K32" s="6">
-        <v>0</v>
-      </c>
-      <c r="L32" s="6">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6">
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2629,19 +2623,19 @@
       <c r="H33" s="2">
         <v>0</v>
       </c>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6">
+      <c r="I33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8">
         <v>46590.830599999994</v>
       </c>
-      <c r="K33" s="6">
-        <v>0</v>
-      </c>
-      <c r="L33" s="6">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2670,19 +2664,19 @@
       <c r="H34" s="2">
         <v>0</v>
       </c>
-      <c r="I34" s="6">
-        <v>0</v>
-      </c>
-      <c r="J34" s="6">
+      <c r="I34" s="8">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8">
         <v>69843.912200000006</v>
       </c>
-      <c r="K34" s="6">
-        <v>0</v>
-      </c>
-      <c r="L34" s="6">
-        <v>0</v>
-      </c>
-      <c r="M34" s="6">
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2711,19 +2705,19 @@
       <c r="H35" s="2">
         <v>0</v>
       </c>
-      <c r="I35" s="6">
-        <v>0</v>
-      </c>
-      <c r="J35" s="6">
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
         <v>76477.482699999993</v>
       </c>
-      <c r="K35" s="6">
-        <v>0</v>
-      </c>
-      <c r="L35" s="6">
-        <v>0</v>
-      </c>
-      <c r="M35" s="6">
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2752,19 +2746,19 @@
       <c r="H36" s="2">
         <v>0</v>
       </c>
-      <c r="I36" s="6">
-        <v>0</v>
-      </c>
-      <c r="J36" s="6">
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8">
         <v>74752.479600000006</v>
       </c>
-      <c r="K36" s="6">
-        <v>0</v>
-      </c>
-      <c r="L36" s="6">
-        <v>0</v>
-      </c>
-      <c r="M36" s="6">
+      <c r="K36" s="8">
+        <v>0</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0</v>
+      </c>
+      <c r="M36" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2793,19 +2787,19 @@
       <c r="H37" s="2">
         <v>0</v>
       </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
+      <c r="I37" s="8">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8">
         <v>99003.165699999998</v>
       </c>
-      <c r="K37" s="6">
-        <v>0</v>
-      </c>
-      <c r="L37" s="6">
-        <v>0</v>
-      </c>
-      <c r="M37" s="6">
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0</v>
+      </c>
+      <c r="M37" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2834,19 +2828,19 @@
       <c r="H38" s="2">
         <v>0</v>
       </c>
-      <c r="I38" s="6">
-        <v>0</v>
-      </c>
-      <c r="J38" s="6">
+      <c r="I38" s="8">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8">
         <v>122358.64270000001</v>
       </c>
-      <c r="K38" s="6">
-        <v>0</v>
-      </c>
-      <c r="L38" s="6">
-        <v>0</v>
-      </c>
-      <c r="M38" s="6">
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="8">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2875,19 +2869,19 @@
       <c r="H39" s="2">
         <v>0</v>
       </c>
-      <c r="I39" s="6">
-        <v>0</v>
-      </c>
-      <c r="J39" s="6">
+      <c r="I39" s="8">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
         <v>103132.0956</v>
       </c>
-      <c r="K39" s="6">
-        <v>0</v>
-      </c>
-      <c r="L39" s="6">
-        <v>0</v>
-      </c>
-      <c r="M39" s="6">
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2916,19 +2910,19 @@
       <c r="H40" s="2">
         <v>0</v>
       </c>
-      <c r="I40" s="6">
-        <v>0</v>
-      </c>
-      <c r="J40" s="6">
+      <c r="I40" s="8">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8">
         <v>94087.449899999992</v>
       </c>
-      <c r="K40" s="6">
-        <v>0</v>
-      </c>
-      <c r="L40" s="6">
-        <v>0</v>
-      </c>
-      <c r="M40" s="6">
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2957,19 +2951,19 @@
       <c r="H41" s="2">
         <v>0</v>
       </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
         <v>98643.117899999997</v>
       </c>
-      <c r="K41" s="6">
-        <v>0</v>
-      </c>
-      <c r="L41" s="6">
-        <v>0</v>
-      </c>
-      <c r="M41" s="6">
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2998,19 +2992,19 @@
       <c r="H42" s="2">
         <v>0</v>
       </c>
-      <c r="I42" s="6">
-        <v>0</v>
-      </c>
-      <c r="J42" s="6">
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8">
         <v>96009.649399999995</v>
       </c>
-      <c r="K42" s="6">
-        <v>0</v>
-      </c>
-      <c r="L42" s="6">
-        <v>0</v>
-      </c>
-      <c r="M42" s="6">
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3039,19 +3033,19 @@
       <c r="H43" s="2">
         <v>0</v>
       </c>
-      <c r="I43" s="6">
-        <v>0</v>
-      </c>
-      <c r="J43" s="6">
+      <c r="I43" s="8">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8">
         <v>136454.4853</v>
       </c>
-      <c r="K43" s="6">
-        <v>0</v>
-      </c>
-      <c r="L43" s="6">
-        <v>0</v>
-      </c>
-      <c r="M43" s="6">
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3080,19 +3074,19 @@
       <c r="H44" s="2">
         <v>0</v>
       </c>
-      <c r="I44" s="6">
-        <v>0</v>
-      </c>
-      <c r="J44" s="6">
+      <c r="I44" s="8">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8">
         <v>122537.0099</v>
       </c>
-      <c r="K44" s="6">
-        <v>0</v>
-      </c>
-      <c r="L44" s="6">
-        <v>0</v>
-      </c>
-      <c r="M44" s="6">
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3121,19 +3115,19 @@
       <c r="H45" s="2">
         <v>0</v>
       </c>
-      <c r="I45" s="6">
-        <v>0</v>
-      </c>
-      <c r="J45" s="6">
+      <c r="I45" s="8">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8">
         <v>113341.01669999999</v>
       </c>
-      <c r="K45" s="6">
-        <v>0</v>
-      </c>
-      <c r="L45" s="6">
-        <v>0</v>
-      </c>
-      <c r="M45" s="6">
+      <c r="K45" s="8">
+        <v>0</v>
+      </c>
+      <c r="L45" s="8">
+        <v>0</v>
+      </c>
+      <c r="M45" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3162,19 +3156,19 @@
       <c r="H46" s="2">
         <v>0</v>
       </c>
-      <c r="I46" s="6">
-        <v>0</v>
-      </c>
-      <c r="J46" s="6">
+      <c r="I46" s="8">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8">
         <v>129735.71219999999</v>
       </c>
-      <c r="K46" s="6">
-        <v>0</v>
-      </c>
-      <c r="L46" s="6">
-        <v>0</v>
-      </c>
-      <c r="M46" s="6">
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3203,19 +3197,19 @@
       <c r="H47" s="2">
         <v>0</v>
       </c>
-      <c r="I47" s="6">
-        <v>0</v>
-      </c>
-      <c r="J47" s="6">
+      <c r="I47" s="8">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
         <v>145217.0968</v>
       </c>
-      <c r="K47" s="6">
-        <v>0</v>
-      </c>
-      <c r="L47" s="6">
-        <v>0</v>
-      </c>
-      <c r="M47" s="6">
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0</v>
+      </c>
+      <c r="M47" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3244,19 +3238,19 @@
       <c r="H48" s="2">
         <v>0</v>
       </c>
-      <c r="I48" s="6">
-        <v>0</v>
-      </c>
-      <c r="J48" s="6">
+      <c r="I48" s="8">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8">
         <v>178862.23149999999</v>
       </c>
-      <c r="K48" s="6">
-        <v>0</v>
-      </c>
-      <c r="L48" s="6">
-        <v>0</v>
-      </c>
-      <c r="M48" s="6">
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+      <c r="M48" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3285,19 +3279,19 @@
       <c r="H49" s="2">
         <v>0</v>
       </c>
-      <c r="I49" s="6">
-        <v>0</v>
-      </c>
-      <c r="J49" s="6">
+      <c r="I49" s="8">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8">
         <v>168698.01240000001</v>
       </c>
-      <c r="K49" s="6">
-        <v>0</v>
-      </c>
-      <c r="L49" s="6">
-        <v>0</v>
-      </c>
-      <c r="M49" s="6">
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+      <c r="M49" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3326,19 +3320,19 @@
       <c r="H50" s="2">
         <v>0</v>
       </c>
-      <c r="I50" s="6">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6">
+      <c r="I50" s="8">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8">
         <v>242691.12910000002</v>
       </c>
-      <c r="K50" s="6">
-        <v>0</v>
-      </c>
-      <c r="L50" s="6">
-        <v>0</v>
-      </c>
-      <c r="M50" s="6">
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0</v>
+      </c>
+      <c r="M50" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3367,19 +3361,19 @@
       <c r="H51" s="2">
         <v>0</v>
       </c>
-      <c r="I51" s="6">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6">
+      <c r="I51" s="8">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
         <v>244847.83550000002</v>
       </c>
-      <c r="K51" s="6">
-        <v>0</v>
-      </c>
-      <c r="L51" s="6">
-        <v>0</v>
-      </c>
-      <c r="M51" s="6">
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+      <c r="M51" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3408,19 +3402,19 @@
       <c r="H52" s="2">
         <v>0</v>
       </c>
-      <c r="I52" s="6">
-        <v>0</v>
-      </c>
-      <c r="J52" s="6">
+      <c r="I52" s="8">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8">
         <v>233076.21910000002</v>
       </c>
-      <c r="K52" s="6">
-        <v>0</v>
-      </c>
-      <c r="L52" s="6">
-        <v>0</v>
-      </c>
-      <c r="M52" s="6">
+      <c r="K52" s="8">
+        <v>0</v>
+      </c>
+      <c r="L52" s="8">
+        <v>0</v>
+      </c>
+      <c r="M52" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3449,19 +3443,19 @@
       <c r="H53" s="2">
         <v>0</v>
       </c>
-      <c r="I53" s="6">
-        <v>0</v>
-      </c>
-      <c r="J53" s="6">
+      <c r="I53" s="8">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8">
         <v>233824.80039999998</v>
       </c>
-      <c r="K53" s="6">
-        <v>0</v>
-      </c>
-      <c r="L53" s="6">
-        <v>0</v>
-      </c>
-      <c r="M53" s="6">
+      <c r="K53" s="8">
+        <v>0</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0</v>
+      </c>
+      <c r="M53" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3490,19 +3484,19 @@
       <c r="H54" s="2">
         <v>0</v>
       </c>
-      <c r="I54" s="6">
-        <v>0</v>
-      </c>
-      <c r="J54" s="6">
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
         <v>232897.51129999998</v>
       </c>
-      <c r="K54" s="6">
-        <v>0</v>
-      </c>
-      <c r="L54" s="6">
-        <v>0</v>
-      </c>
-      <c r="M54" s="6">
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3531,19 +3525,19 @@
       <c r="H55" s="2">
         <v>0</v>
       </c>
-      <c r="I55" s="6">
-        <v>0</v>
-      </c>
-      <c r="J55" s="6">
+      <c r="I55" s="8">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
         <v>242325.77929999999</v>
       </c>
-      <c r="K55" s="6">
-        <v>0</v>
-      </c>
-      <c r="L55" s="6">
-        <v>0</v>
-      </c>
-      <c r="M55" s="6">
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0</v>
+      </c>
+      <c r="M55" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3572,19 +3566,19 @@
       <c r="H56" s="2">
         <v>0</v>
       </c>
-      <c r="I56" s="6">
-        <v>0</v>
-      </c>
-      <c r="J56" s="6">
+      <c r="I56" s="8">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8">
         <v>272268.47249999997</v>
       </c>
-      <c r="K56" s="6">
-        <v>0</v>
-      </c>
-      <c r="L56" s="6">
-        <v>0</v>
-      </c>
-      <c r="M56" s="6">
+      <c r="K56" s="8">
+        <v>0</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0</v>
+      </c>
+      <c r="M56" s="8">
         <v>0</v>
       </c>
     </row>
@@ -3613,19 +3607,19 @@
       <c r="H57" s="2">
         <v>0.60987690000000006</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="8">
         <v>321935.18119999999</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="8">
         <v>295737.435</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="8">
         <v>4770533.5661999993</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L57" s="8">
         <v>86370.621399999989</v>
       </c>
-      <c r="M57" s="6">
+      <c r="M57" s="8">
         <v>181743.3162</v>
       </c>
     </row>
@@ -3654,19 +3648,19 @@
       <c r="H58" s="2">
         <v>0.62063460000000004</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="8">
         <v>330757.50099999999</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J58" s="8">
         <v>295737.435</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="8">
         <v>4763476.5388000002</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L58" s="8">
         <v>133260.29560000001</v>
       </c>
-      <c r="M58" s="6">
+      <c r="M58" s="8">
         <v>184949.11079999999</v>
       </c>
     </row>
@@ -3695,19 +3689,19 @@
       <c r="H59" s="2">
         <v>0.69002070000000004</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="8">
         <v>354831.78859999997</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="8">
         <v>295737.435</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="8">
         <v>4941572.8118000003</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59" s="8">
         <v>57715.954600000005</v>
       </c>
-      <c r="M59" s="6">
+      <c r="M59" s="8">
         <v>205626.1686</v>
       </c>
     </row>
@@ -3736,19 +3730,19 @@
       <c r="H60" s="2">
         <v>0.71235300000000001</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="8">
         <v>360036.92480000004</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="8">
         <v>295737.435</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="8">
         <v>5130607.6217999998</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60" s="8">
         <v>129123.8768</v>
       </c>
-      <c r="M60" s="6">
+      <c r="M60" s="8">
         <v>212281.19399999999</v>
       </c>
     </row>
@@ -3777,19 +3771,19 @@
       <c r="H61" s="2">
         <v>0.72523099999999996</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="8">
         <v>390375.679</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J61" s="8">
         <v>295737.435</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="8">
         <v>5249419.4172</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61" s="8">
         <v>194999.28000000003</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M61" s="8">
         <v>216118.83799999999</v>
       </c>
     </row>
@@ -3818,19 +3812,19 @@
       <c r="H62" s="2">
         <v>0.7335988</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="8">
         <v>431937.59</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="8">
         <v>295737.435</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="8">
         <v>5387498.8495999994</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="8">
         <v>64798.073599999996</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M62" s="8">
         <v>218612.4424</v>
       </c>
     </row>
@@ -3859,19 +3853,19 @@
       <c r="H63" s="2">
         <v>0.75449960000000005</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="8">
         <v>488051.64560000005</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J63" s="8">
         <v>295737.435</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="8">
         <v>5394944.3498</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="8">
         <v>159110.63340000002</v>
       </c>
-      <c r="M63" s="6">
+      <c r="M63" s="8">
         <v>224840.88080000001</v>
       </c>
     </row>
@@ -3900,19 +3894,19 @@
       <c r="H64" s="2">
         <v>0.75876200000000005</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="8">
         <v>528481.39500000002</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="8">
         <v>295737.435</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="8">
         <v>5497245.1273999996</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64" s="8">
         <v>126033.19959999999</v>
       </c>
-      <c r="M64" s="6">
+      <c r="M64" s="8">
         <v>226111.07600000003</v>
       </c>
     </row>
@@ -3941,19 +3935,19 @@
       <c r="H65" s="2">
         <v>0.76768809999999998</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="8">
         <v>556031.43539999996</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="8">
         <v>295737.435</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="8">
         <v>5477231.9241999993</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L65" s="8">
         <v>575735.64240000001</v>
       </c>
-      <c r="M65" s="6">
+      <c r="M65" s="8">
         <v>228771.05379999999</v>
       </c>
     </row>
@@ -3982,19 +3976,19 @@
       <c r="H66" s="2">
         <v>0.76604070000000002</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="8">
         <v>586165.40399999998</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="8">
         <v>295737.435</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="8">
         <v>5537302.1383999996</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L66" s="8">
         <v>285283.20760000002</v>
       </c>
-      <c r="M66" s="6">
+      <c r="M66" s="8">
         <v>228280.12860000003</v>
       </c>
     </row>
@@ -4023,19 +4017,19 @@
       <c r="H67" s="2">
         <v>0.79585539999999999</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I67" s="8">
         <v>586330.67480000004</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J67" s="8">
         <v>513315.69820000004</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="8">
         <v>5333355.0507999994</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L67" s="8">
         <v>38460.178000000007</v>
       </c>
-      <c r="M67" s="6">
+      <c r="M67" s="8">
         <v>237164.90920000002</v>
       </c>
     </row>
@@ -4064,19 +4058,19 @@
       <c r="H68" s="2">
         <v>0.81966749999999999</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68" s="8">
         <v>562057.59140000003</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68" s="8">
         <v>562957.34279999998</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="8">
         <v>5444763.0958000012</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L68" s="8">
         <v>27130.903399999999</v>
       </c>
-      <c r="M68" s="6">
+      <c r="M68" s="8">
         <v>244260.91500000001</v>
       </c>
     </row>
@@ -4105,19 +4099,19 @@
       <c r="H69" s="2">
         <v>0.87081759999999997</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="8">
         <v>582599.05920000002</v>
       </c>
-      <c r="J69" s="6">
+      <c r="J69" s="8">
         <v>540988.27619999996</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69" s="8">
         <v>5514171.9744000006</v>
       </c>
-      <c r="L69" s="6">
+      <c r="L69" s="8">
         <v>394666.58100000001</v>
       </c>
-      <c r="M69" s="6">
+      <c r="M69" s="8">
         <v>259503.64480000001</v>
       </c>
     </row>
@@ -4146,19 +4140,19 @@
       <c r="H70" s="2">
         <v>0.90261720000000001</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I70" s="8">
         <v>573320.56099999999</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J70" s="8">
         <v>698785.32559999998</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K70" s="8">
         <v>5309256.8039999995</v>
       </c>
-      <c r="L70" s="6">
+      <c r="L70" s="8">
         <v>44734.031600000002</v>
       </c>
-      <c r="M70" s="6">
+      <c r="M70" s="8">
         <v>268979.92560000002</v>
       </c>
     </row>
@@ -4187,19 +4181,19 @@
       <c r="H71" s="2">
         <v>0.94134249999999997</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I71" s="8">
         <v>604428.54259999993</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J71" s="8">
         <v>811376.78819999995</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71" s="8">
         <v>5611084.9418000001</v>
       </c>
-      <c r="L71" s="6">
+      <c r="L71" s="8">
         <v>81110.593600000007</v>
       </c>
-      <c r="M71" s="6">
+      <c r="M71" s="8">
         <v>280520.065</v>
       </c>
     </row>
@@ -4228,19 +4222,19 @@
       <c r="H72" s="2">
         <v>0.96450239999999998</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I72" s="8">
         <v>646383.69439999992</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72" s="8">
         <v>856793.59739999997</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K72" s="8">
         <v>5436312.0542000011</v>
       </c>
-      <c r="L72" s="6">
+      <c r="L72" s="8">
         <v>92074.818200000009</v>
       </c>
-      <c r="M72" s="6">
+      <c r="M72" s="8">
         <v>287421.71519999998</v>
       </c>
     </row>
@@ -4269,19 +4263,19 @@
       <c r="H73" s="2">
         <v>1.0030323000000001</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I73" s="8">
         <v>665943.4608</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73" s="8">
         <v>873481.62719999999</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K73" s="8">
         <v>5523496.7520000003</v>
       </c>
-      <c r="L73" s="6">
+      <c r="L73" s="8">
         <v>44650.144600000007</v>
       </c>
-      <c r="M73" s="6">
+      <c r="M73" s="8">
         <v>298903.62540000002</v>
       </c>
     </row>
@@ -4310,19 +4304,19 @@
       <c r="H74" s="2">
         <v>1.0187179</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I74" s="8">
         <v>741050.39740000002</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74" s="8">
         <v>374465.93580000004</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K74" s="8">
         <v>5669624.3895999994</v>
       </c>
-      <c r="L74" s="6">
+      <c r="L74" s="8">
         <v>201415.99479999999</v>
       </c>
-      <c r="M74" s="6">
+      <c r="M74" s="8">
         <v>303577.93419999996</v>
       </c>
     </row>
@@ -4351,19 +4345,19 @@
       <c r="H75" s="2">
         <v>1.0393654000000001</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I75" s="8">
         <v>783109.37240000011</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J75" s="8">
         <v>401861.34399999998</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K75" s="8">
         <v>5712053.2719999999</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L75" s="8">
         <v>183270.95359999998</v>
       </c>
-      <c r="M75" s="6">
+      <c r="M75" s="8">
         <v>309730.88920000003</v>
       </c>
     </row>
@@ -4392,19 +4386,19 @@
       <c r="H76" s="2">
         <v>1.1294092</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76" s="8">
         <v>789596.62379999994</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J76" s="8">
         <v>412959.07260000001</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K76" s="8">
         <v>5651124.2813999997</v>
       </c>
-      <c r="L76" s="6">
+      <c r="L76" s="8">
         <v>176083.13399999999</v>
       </c>
-      <c r="M76" s="6">
+      <c r="M76" s="8">
         <v>336563.94160000002</v>
       </c>
     </row>
@@ -4433,19 +4427,19 @@
       <c r="H77" s="2">
         <v>1.0992389</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I77" s="8">
         <v>732639.85400000005</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77" s="8">
         <v>504006.14840000001</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K77" s="8">
         <v>5527467.8701999998</v>
       </c>
-      <c r="L77" s="6">
+      <c r="L77" s="8">
         <v>114488.47100000001</v>
       </c>
-      <c r="M77" s="6">
+      <c r="M77" s="8">
         <v>327573.19219999999</v>
       </c>
     </row>
@@ -4474,19 +4468,19 @@
       <c r="H78" s="2">
         <v>1.0877568</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I78" s="8">
         <v>789643.61840000004</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J78" s="8">
         <v>486439.16760000004</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K78" s="8">
         <v>5087297.3447999991</v>
       </c>
-      <c r="L78" s="6">
+      <c r="L78" s="8">
         <v>58566.446599999996</v>
       </c>
-      <c r="M78" s="6">
+      <c r="M78" s="8">
         <v>324151.52639999997</v>
       </c>
     </row>
@@ -4515,19 +4509,19 @@
       <c r="H79" s="2">
         <v>1.0987651000000001</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I79" s="8">
         <v>973227.91899999988</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79" s="8">
         <v>594710.58380000002</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K79" s="8">
         <v>4910237.6946</v>
       </c>
-      <c r="L79" s="6">
+      <c r="L79" s="8">
         <v>233758.50099999999</v>
       </c>
-      <c r="M79" s="6">
+      <c r="M79" s="8">
         <v>327431.99980000005</v>
       </c>
     </row>
@@ -4556,19 +4550,19 @@
       <c r="H80" s="2">
         <v>1.1448271000000001</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I80" s="8">
         <v>1044406.8282000001</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J80" s="8">
         <v>541305.13960000011</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K80" s="8">
         <v>5040308.7047999995</v>
       </c>
-      <c r="L80" s="6">
+      <c r="L80" s="8">
         <v>25618.464</v>
       </c>
-      <c r="M80" s="6">
+      <c r="M80" s="8">
         <v>341158.47580000001</v>
       </c>
     </row>
@@ -4597,19 +4591,19 @@
       <c r="H81" s="2">
         <v>1.1682167999999999</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I81" s="8">
         <v>1068615.9012</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J81" s="8">
         <v>528177.3456</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K81" s="8">
         <v>4963565.9567999998</v>
       </c>
-      <c r="L81" s="6">
+      <c r="L81" s="8">
         <v>273005.69699999999</v>
       </c>
-      <c r="M81" s="6">
+      <c r="M81" s="8">
         <v>348128.60639999999</v>
       </c>
     </row>
@@ -4638,19 +4632,19 @@
       <c r="H82" s="2">
         <v>1.1938010999999999</v>
       </c>
-      <c r="I82" s="6">
+      <c r="I82" s="8">
         <v>1056276.9131999998</v>
       </c>
-      <c r="J82" s="6">
+      <c r="J82" s="8">
         <v>538693.28879999998</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K82" s="8">
         <v>4912031.7439999999</v>
       </c>
-      <c r="L82" s="6">
+      <c r="L82" s="8">
         <v>463670.09019999998</v>
       </c>
-      <c r="M82" s="6">
+      <c r="M82" s="8">
         <v>355752.72779999999</v>
       </c>
     </row>
@@ -4679,19 +4673,19 @@
       <c r="H83" s="2">
         <v>1.2197560000000001</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I83" s="8">
         <v>1126329.2334</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J83" s="8">
         <v>452224.80420000001</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K83" s="8">
         <v>4766708.9448000006</v>
       </c>
-      <c r="L83" s="6">
+      <c r="L83" s="8">
         <v>84045.237999999998</v>
       </c>
-      <c r="M83" s="6">
+      <c r="M83" s="8">
         <v>363487.28800000006</v>
       </c>
     </row>
@@ -4720,19 +4714,19 @@
       <c r="H84" s="2">
         <v>0</v>
       </c>
-      <c r="I84" s="6">
-        <v>0</v>
-      </c>
-      <c r="J84" s="6">
-        <v>0</v>
-      </c>
-      <c r="K84" s="6">
-        <v>0</v>
-      </c>
-      <c r="L84" s="6">
-        <v>0</v>
-      </c>
-      <c r="M84" s="6">
+      <c r="I84" s="8">
+        <v>0</v>
+      </c>
+      <c r="J84" s="8">
+        <v>0</v>
+      </c>
+      <c r="K84" s="8">
+        <v>0</v>
+      </c>
+      <c r="L84" s="8">
+        <v>0</v>
+      </c>
+      <c r="M84" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4761,19 +4755,19 @@
       <c r="H85" s="2">
         <v>0</v>
       </c>
-      <c r="I85" s="6">
-        <v>0</v>
-      </c>
-      <c r="J85" s="6">
-        <v>0</v>
-      </c>
-      <c r="K85" s="6">
-        <v>0</v>
-      </c>
-      <c r="L85" s="6">
-        <v>0</v>
-      </c>
-      <c r="M85" s="6">
+      <c r="I85" s="8">
+        <v>0</v>
+      </c>
+      <c r="J85" s="8">
+        <v>0</v>
+      </c>
+      <c r="K85" s="8">
+        <v>0</v>
+      </c>
+      <c r="L85" s="8">
+        <v>0</v>
+      </c>
+      <c r="M85" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4802,19 +4796,19 @@
       <c r="H86" s="2">
         <v>0</v>
       </c>
-      <c r="I86" s="6">
-        <v>0</v>
-      </c>
-      <c r="J86" s="6">
-        <v>0</v>
-      </c>
-      <c r="K86" s="6">
-        <v>0</v>
-      </c>
-      <c r="L86" s="6">
-        <v>0</v>
-      </c>
-      <c r="M86" s="6">
+      <c r="I86" s="8">
+        <v>0</v>
+      </c>
+      <c r="J86" s="8">
+        <v>0</v>
+      </c>
+      <c r="K86" s="8">
+        <v>0</v>
+      </c>
+      <c r="L86" s="8">
+        <v>0</v>
+      </c>
+      <c r="M86" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4843,19 +4837,19 @@
       <c r="H87" s="2">
         <v>0</v>
       </c>
-      <c r="I87" s="6">
-        <v>0</v>
-      </c>
-      <c r="J87" s="6">
-        <v>0</v>
-      </c>
-      <c r="K87" s="6">
-        <v>0</v>
-      </c>
-      <c r="L87" s="6">
-        <v>0</v>
-      </c>
-      <c r="M87" s="6">
+      <c r="I87" s="8">
+        <v>0</v>
+      </c>
+      <c r="J87" s="8">
+        <v>0</v>
+      </c>
+      <c r="K87" s="8">
+        <v>0</v>
+      </c>
+      <c r="L87" s="8">
+        <v>0</v>
+      </c>
+      <c r="M87" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4884,19 +4878,19 @@
       <c r="H88" s="2">
         <v>0</v>
       </c>
-      <c r="I88" s="6">
-        <v>0</v>
-      </c>
-      <c r="J88" s="6">
-        <v>0</v>
-      </c>
-      <c r="K88" s="6">
-        <v>0</v>
-      </c>
-      <c r="L88" s="6">
-        <v>0</v>
-      </c>
-      <c r="M88" s="6">
+      <c r="I88" s="8">
+        <v>0</v>
+      </c>
+      <c r="J88" s="8">
+        <v>0</v>
+      </c>
+      <c r="K88" s="8">
+        <v>0</v>
+      </c>
+      <c r="L88" s="8">
+        <v>0</v>
+      </c>
+      <c r="M88" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4925,19 +4919,19 @@
       <c r="H89" s="2">
         <v>0</v>
       </c>
-      <c r="I89" s="6">
-        <v>0</v>
-      </c>
-      <c r="J89" s="6">
-        <v>0</v>
-      </c>
-      <c r="K89" s="6">
-        <v>0</v>
-      </c>
-      <c r="L89" s="6">
-        <v>0</v>
-      </c>
-      <c r="M89" s="6">
+      <c r="I89" s="8">
+        <v>0</v>
+      </c>
+      <c r="J89" s="8">
+        <v>0</v>
+      </c>
+      <c r="K89" s="8">
+        <v>0</v>
+      </c>
+      <c r="L89" s="8">
+        <v>0</v>
+      </c>
+      <c r="M89" s="8">
         <v>0</v>
       </c>
     </row>
@@ -4966,19 +4960,19 @@
       <c r="H90" s="2">
         <v>0</v>
       </c>
-      <c r="I90" s="6">
-        <v>0</v>
-      </c>
-      <c r="J90" s="6">
-        <v>0</v>
-      </c>
-      <c r="K90" s="6">
-        <v>0</v>
-      </c>
-      <c r="L90" s="6">
-        <v>0</v>
-      </c>
-      <c r="M90" s="6">
+      <c r="I90" s="8">
+        <v>0</v>
+      </c>
+      <c r="J90" s="8">
+        <v>0</v>
+      </c>
+      <c r="K90" s="8">
+        <v>0</v>
+      </c>
+      <c r="L90" s="8">
+        <v>0</v>
+      </c>
+      <c r="M90" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5007,19 +5001,19 @@
       <c r="H91" s="2">
         <v>0</v>
       </c>
-      <c r="I91" s="6">
-        <v>0</v>
-      </c>
-      <c r="J91" s="6">
-        <v>0</v>
-      </c>
-      <c r="K91" s="6">
-        <v>0</v>
-      </c>
-      <c r="L91" s="6">
-        <v>0</v>
-      </c>
-      <c r="M91" s="6">
+      <c r="I91" s="8">
+        <v>0</v>
+      </c>
+      <c r="J91" s="8">
+        <v>0</v>
+      </c>
+      <c r="K91" s="8">
+        <v>0</v>
+      </c>
+      <c r="L91" s="8">
+        <v>0</v>
+      </c>
+      <c r="M91" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5048,19 +5042,19 @@
       <c r="H92" s="2">
         <v>0</v>
       </c>
-      <c r="I92" s="6">
-        <v>0</v>
-      </c>
-      <c r="J92" s="6">
-        <v>0</v>
-      </c>
-      <c r="K92" s="6">
-        <v>0</v>
-      </c>
-      <c r="L92" s="6">
-        <v>0</v>
-      </c>
-      <c r="M92" s="6">
+      <c r="I92" s="8">
+        <v>0</v>
+      </c>
+      <c r="J92" s="8">
+        <v>0</v>
+      </c>
+      <c r="K92" s="8">
+        <v>0</v>
+      </c>
+      <c r="L92" s="8">
+        <v>0</v>
+      </c>
+      <c r="M92" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5089,19 +5083,19 @@
       <c r="H93" s="2">
         <v>0</v>
       </c>
-      <c r="I93" s="6">
-        <v>0</v>
-      </c>
-      <c r="J93" s="6">
+      <c r="I93" s="8">
+        <v>0</v>
+      </c>
+      <c r="J93" s="8">
         <v>38329.203200000004</v>
       </c>
-      <c r="K93" s="6">
-        <v>0</v>
-      </c>
-      <c r="L93" s="6">
-        <v>0</v>
-      </c>
-      <c r="M93" s="6">
+      <c r="K93" s="8">
+        <v>0</v>
+      </c>
+      <c r="L93" s="8">
+        <v>0</v>
+      </c>
+      <c r="M93" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5130,19 +5124,19 @@
       <c r="H94" s="2">
         <v>0</v>
       </c>
-      <c r="I94" s="6">
-        <v>0</v>
-      </c>
-      <c r="J94" s="6">
+      <c r="I94" s="8">
+        <v>0</v>
+      </c>
+      <c r="J94" s="8">
         <v>81859.025800000003</v>
       </c>
-      <c r="K94" s="6">
-        <v>0</v>
-      </c>
-      <c r="L94" s="6">
-        <v>0</v>
-      </c>
-      <c r="M94" s="6">
+      <c r="K94" s="8">
+        <v>0</v>
+      </c>
+      <c r="L94" s="8">
+        <v>0</v>
+      </c>
+      <c r="M94" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5171,19 +5165,19 @@
       <c r="H95" s="2">
         <v>0</v>
       </c>
-      <c r="I95" s="6">
-        <v>0</v>
-      </c>
-      <c r="J95" s="6">
+      <c r="I95" s="8">
+        <v>0</v>
+      </c>
+      <c r="J95" s="8">
         <v>155349.2549</v>
       </c>
-      <c r="K95" s="6">
-        <v>0</v>
-      </c>
-      <c r="L95" s="6">
-        <v>0</v>
-      </c>
-      <c r="M95" s="6">
+      <c r="K95" s="8">
+        <v>0</v>
+      </c>
+      <c r="L95" s="8">
+        <v>0</v>
+      </c>
+      <c r="M95" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5212,19 +5206,19 @@
       <c r="H96" s="2">
         <v>0</v>
       </c>
-      <c r="I96" s="6">
-        <v>0</v>
-      </c>
-      <c r="J96" s="6">
+      <c r="I96" s="8">
+        <v>0</v>
+      </c>
+      <c r="J96" s="8">
         <v>190210.93819999998</v>
       </c>
-      <c r="K96" s="6">
-        <v>0</v>
-      </c>
-      <c r="L96" s="6">
-        <v>0</v>
-      </c>
-      <c r="M96" s="6">
+      <c r="K96" s="8">
+        <v>0</v>
+      </c>
+      <c r="L96" s="8">
+        <v>0</v>
+      </c>
+      <c r="M96" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5253,19 +5247,19 @@
       <c r="H97" s="2">
         <v>0</v>
       </c>
-      <c r="I97" s="6">
-        <v>0</v>
-      </c>
-      <c r="J97" s="6">
+      <c r="I97" s="8">
+        <v>0</v>
+      </c>
+      <c r="J97" s="8">
         <v>209970.40569999997</v>
       </c>
-      <c r="K97" s="6">
-        <v>0</v>
-      </c>
-      <c r="L97" s="6">
-        <v>0</v>
-      </c>
-      <c r="M97" s="6">
+      <c r="K97" s="8">
+        <v>0</v>
+      </c>
+      <c r="L97" s="8">
+        <v>0</v>
+      </c>
+      <c r="M97" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5294,19 +5288,19 @@
       <c r="H98" s="2">
         <v>0</v>
       </c>
-      <c r="I98" s="6">
-        <v>0</v>
-      </c>
-      <c r="J98" s="6">
+      <c r="I98" s="8">
+        <v>0</v>
+      </c>
+      <c r="J98" s="8">
         <v>245875.68210000001</v>
       </c>
-      <c r="K98" s="6">
-        <v>0</v>
-      </c>
-      <c r="L98" s="6">
-        <v>0</v>
-      </c>
-      <c r="M98" s="6">
+      <c r="K98" s="8">
+        <v>0</v>
+      </c>
+      <c r="L98" s="8">
+        <v>0</v>
+      </c>
+      <c r="M98" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5335,19 +5329,19 @@
       <c r="H99" s="2">
         <v>0</v>
       </c>
-      <c r="I99" s="6">
-        <v>0</v>
-      </c>
-      <c r="J99" s="6">
+      <c r="I99" s="8">
+        <v>0</v>
+      </c>
+      <c r="J99" s="8">
         <v>279795.42859999998</v>
       </c>
-      <c r="K99" s="6">
-        <v>0</v>
-      </c>
-      <c r="L99" s="6">
-        <v>0</v>
-      </c>
-      <c r="M99" s="6">
+      <c r="K99" s="8">
+        <v>0</v>
+      </c>
+      <c r="L99" s="8">
+        <v>0</v>
+      </c>
+      <c r="M99" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5376,19 +5370,19 @@
       <c r="H100" s="2">
         <v>0</v>
       </c>
-      <c r="I100" s="6">
-        <v>0</v>
-      </c>
-      <c r="J100" s="6">
+      <c r="I100" s="8">
+        <v>0</v>
+      </c>
+      <c r="J100" s="8">
         <v>380261.27020000003</v>
       </c>
-      <c r="K100" s="6">
-        <v>0</v>
-      </c>
-      <c r="L100" s="6">
-        <v>0</v>
-      </c>
-      <c r="M100" s="6">
+      <c r="K100" s="8">
+        <v>0</v>
+      </c>
+      <c r="L100" s="8">
+        <v>0</v>
+      </c>
+      <c r="M100" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5417,19 +5411,19 @@
       <c r="H101" s="2">
         <v>0</v>
       </c>
-      <c r="I101" s="6">
-        <v>0</v>
-      </c>
-      <c r="J101" s="6">
+      <c r="I101" s="8">
+        <v>0</v>
+      </c>
+      <c r="J101" s="8">
         <v>482068.76949999999</v>
       </c>
-      <c r="K101" s="6">
-        <v>0</v>
-      </c>
-      <c r="L101" s="6">
-        <v>0</v>
-      </c>
-      <c r="M101" s="6">
+      <c r="K101" s="8">
+        <v>0</v>
+      </c>
+      <c r="L101" s="8">
+        <v>0</v>
+      </c>
+      <c r="M101" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5458,19 +5452,19 @@
       <c r="H102" s="2">
         <v>0</v>
       </c>
-      <c r="I102" s="6">
-        <v>0</v>
-      </c>
-      <c r="J102" s="6">
+      <c r="I102" s="8">
+        <v>0</v>
+      </c>
+      <c r="J102" s="8">
         <v>643547.95380000002</v>
       </c>
-      <c r="K102" s="6">
-        <v>0</v>
-      </c>
-      <c r="L102" s="6">
-        <v>0</v>
-      </c>
-      <c r="M102" s="6">
+      <c r="K102" s="8">
+        <v>0</v>
+      </c>
+      <c r="L102" s="8">
+        <v>0</v>
+      </c>
+      <c r="M102" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5499,19 +5493,19 @@
       <c r="H103" s="2">
         <v>0</v>
       </c>
-      <c r="I103" s="6">
-        <v>0</v>
-      </c>
-      <c r="J103" s="6">
+      <c r="I103" s="8">
+        <v>0</v>
+      </c>
+      <c r="J103" s="8">
         <v>757469.78399999999</v>
       </c>
-      <c r="K103" s="6">
-        <v>0</v>
-      </c>
-      <c r="L103" s="6">
-        <v>0</v>
-      </c>
-      <c r="M103" s="6">
+      <c r="K103" s="8">
+        <v>0</v>
+      </c>
+      <c r="L103" s="8">
+        <v>0</v>
+      </c>
+      <c r="M103" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5540,19 +5534,19 @@
       <c r="H104" s="2">
         <v>0</v>
       </c>
-      <c r="I104" s="6">
-        <v>0</v>
-      </c>
-      <c r="J104" s="6">
+      <c r="I104" s="8">
+        <v>0</v>
+      </c>
+      <c r="J104" s="8">
         <v>1000072.309</v>
       </c>
-      <c r="K104" s="6">
-        <v>0</v>
-      </c>
-      <c r="L104" s="6">
-        <v>0</v>
-      </c>
-      <c r="M104" s="6">
+      <c r="K104" s="8">
+        <v>0</v>
+      </c>
+      <c r="L104" s="8">
+        <v>0</v>
+      </c>
+      <c r="M104" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5581,19 +5575,19 @@
       <c r="H105" s="2">
         <v>0</v>
       </c>
-      <c r="I105" s="6">
-        <v>0</v>
-      </c>
-      <c r="J105" s="6">
+      <c r="I105" s="8">
+        <v>0</v>
+      </c>
+      <c r="J105" s="8">
         <v>1318194.9702999999</v>
       </c>
-      <c r="K105" s="6">
-        <v>0</v>
-      </c>
-      <c r="L105" s="6">
-        <v>0</v>
-      </c>
-      <c r="M105" s="6">
+      <c r="K105" s="8">
+        <v>0</v>
+      </c>
+      <c r="L105" s="8">
+        <v>0</v>
+      </c>
+      <c r="M105" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5622,19 +5616,19 @@
       <c r="H106" s="2">
         <v>0</v>
       </c>
-      <c r="I106" s="6">
-        <v>0</v>
-      </c>
-      <c r="J106" s="6">
+      <c r="I106" s="8">
+        <v>0</v>
+      </c>
+      <c r="J106" s="8">
         <v>1582967.4031</v>
       </c>
-      <c r="K106" s="6">
-        <v>0</v>
-      </c>
-      <c r="L106" s="6">
-        <v>0</v>
-      </c>
-      <c r="M106" s="6">
+      <c r="K106" s="8">
+        <v>0</v>
+      </c>
+      <c r="L106" s="8">
+        <v>0</v>
+      </c>
+      <c r="M106" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5663,19 +5657,19 @@
       <c r="H107" s="2">
         <v>0</v>
       </c>
-      <c r="I107" s="6">
-        <v>0</v>
-      </c>
-      <c r="J107" s="6">
+      <c r="I107" s="8">
+        <v>0</v>
+      </c>
+      <c r="J107" s="8">
         <v>1868116.5939</v>
       </c>
-      <c r="K107" s="6">
-        <v>0</v>
-      </c>
-      <c r="L107" s="6">
-        <v>0</v>
-      </c>
-      <c r="M107" s="6">
+      <c r="K107" s="8">
+        <v>0</v>
+      </c>
+      <c r="L107" s="8">
+        <v>0</v>
+      </c>
+      <c r="M107" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5704,19 +5698,19 @@
       <c r="H108" s="2">
         <v>0</v>
       </c>
-      <c r="I108" s="6">
-        <v>0</v>
-      </c>
-      <c r="J108" s="6">
+      <c r="I108" s="8">
+        <v>0</v>
+      </c>
+      <c r="J108" s="8">
         <v>2337373.9161</v>
       </c>
-      <c r="K108" s="6">
-        <v>0</v>
-      </c>
-      <c r="L108" s="6">
-        <v>0</v>
-      </c>
-      <c r="M108" s="6">
+      <c r="K108" s="8">
+        <v>0</v>
+      </c>
+      <c r="L108" s="8">
+        <v>0</v>
+      </c>
+      <c r="M108" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5745,19 +5739,19 @@
       <c r="H109" s="2">
         <v>0</v>
       </c>
-      <c r="I109" s="6">
-        <v>0</v>
-      </c>
-      <c r="J109" s="6">
+      <c r="I109" s="8">
+        <v>0</v>
+      </c>
+      <c r="J109" s="8">
         <v>2588758.8488000003</v>
       </c>
-      <c r="K109" s="6">
-        <v>0</v>
-      </c>
-      <c r="L109" s="6">
-        <v>0</v>
-      </c>
-      <c r="M109" s="6">
+      <c r="K109" s="8">
+        <v>0</v>
+      </c>
+      <c r="L109" s="8">
+        <v>0</v>
+      </c>
+      <c r="M109" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5786,19 +5780,19 @@
       <c r="H110" s="2">
         <v>0</v>
       </c>
-      <c r="I110" s="6">
-        <v>0</v>
-      </c>
-      <c r="J110" s="6">
+      <c r="I110" s="8">
+        <v>0</v>
+      </c>
+      <c r="J110" s="8">
         <v>2869460.4432999999</v>
       </c>
-      <c r="K110" s="6">
-        <v>0</v>
-      </c>
-      <c r="L110" s="6">
-        <v>0</v>
-      </c>
-      <c r="M110" s="6">
+      <c r="K110" s="8">
+        <v>0</v>
+      </c>
+      <c r="L110" s="8">
+        <v>0</v>
+      </c>
+      <c r="M110" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5827,19 +5821,19 @@
       <c r="H111" s="2">
         <v>0</v>
       </c>
-      <c r="I111" s="6">
+      <c r="I111" s="8">
         <v>30405604.6261</v>
       </c>
-      <c r="J111" s="6">
+      <c r="J111" s="8">
         <v>2884057.6990999999</v>
       </c>
-      <c r="K111" s="6">
+      <c r="K111" s="8">
         <v>200469.71890000001</v>
       </c>
-      <c r="L111" s="6">
+      <c r="L111" s="8">
         <v>-50277727.809199996</v>
       </c>
-      <c r="M111" s="6">
+      <c r="M111" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5868,19 +5862,19 @@
       <c r="H112" s="2">
         <v>0</v>
       </c>
-      <c r="I112" s="6">
+      <c r="I112" s="8">
         <v>28899077.6336</v>
       </c>
-      <c r="J112" s="6">
+      <c r="J112" s="8">
         <v>3236276.3183042998</v>
       </c>
-      <c r="K112" s="6">
+      <c r="K112" s="8">
         <v>225531.05840000001</v>
       </c>
-      <c r="L112" s="6">
+      <c r="L112" s="8">
         <v>-46551763.577700004</v>
       </c>
-      <c r="M112" s="6">
+      <c r="M112" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5909,19 +5903,19 @@
       <c r="H113" s="2">
         <v>0</v>
       </c>
-      <c r="I113" s="6">
+      <c r="I113" s="8">
         <v>29889254.532399997</v>
       </c>
-      <c r="J113" s="6">
+      <c r="J113" s="8">
         <v>3756950.6695348001</v>
       </c>
-      <c r="K113" s="6">
+      <c r="K113" s="8">
         <v>244781.05679999999</v>
       </c>
-      <c r="L113" s="6">
+      <c r="L113" s="8">
         <v>-49465384.030100003</v>
       </c>
-      <c r="M113" s="6">
+      <c r="M113" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5950,19 +5944,19 @@
       <c r="H114" s="2">
         <v>0</v>
       </c>
-      <c r="I114" s="6">
+      <c r="I114" s="8">
         <v>32198766.966499999</v>
       </c>
-      <c r="J114" s="6">
+      <c r="J114" s="8">
         <v>3912817.6880955999</v>
       </c>
-      <c r="K114" s="6">
+      <c r="K114" s="8">
         <v>247930.48759999999</v>
       </c>
-      <c r="L114" s="6">
+      <c r="L114" s="8">
         <v>-49600411.5955</v>
       </c>
-      <c r="M114" s="6">
+      <c r="M114" s="8">
         <v>0</v>
       </c>
     </row>
@@ -5991,19 +5985,19 @@
       <c r="H115" s="2">
         <v>0</v>
       </c>
-      <c r="I115" s="6">
+      <c r="I115" s="8">
         <v>34632066.710000001</v>
       </c>
-      <c r="J115" s="6">
+      <c r="J115" s="8">
         <v>3853690.1618348002</v>
       </c>
-      <c r="K115" s="6">
+      <c r="K115" s="8">
         <v>239071.30599999998</v>
       </c>
-      <c r="L115" s="6">
+      <c r="L115" s="8">
         <v>-46347167.4177</v>
       </c>
-      <c r="M115" s="6">
+      <c r="M115" s="8">
         <v>0</v>
       </c>
     </row>
@@ -6032,19 +6026,19 @@
       <c r="H116" s="2">
         <v>0</v>
       </c>
-      <c r="I116" s="6">
+      <c r="I116" s="8">
         <v>37622225.612499997</v>
       </c>
-      <c r="J116" s="6">
+      <c r="J116" s="8">
         <v>3672154.7091957</v>
       </c>
-      <c r="K116" s="6">
+      <c r="K116" s="8">
         <v>263804.88400000002</v>
       </c>
-      <c r="L116" s="6">
+      <c r="L116" s="8">
         <v>-52243201.801600002</v>
       </c>
-      <c r="M116" s="6">
+      <c r="M116" s="8">
         <v>0</v>
       </c>
     </row>
@@ -6073,19 +6067,19 @@
       <c r="H117" s="2">
         <v>4.7733699999999997E-2</v>
       </c>
-      <c r="I117" s="6">
+      <c r="I117" s="8">
         <v>43406394.060199998</v>
       </c>
-      <c r="J117" s="6">
+      <c r="J117" s="8">
         <v>3859682.720487</v>
       </c>
-      <c r="K117" s="6">
+      <c r="K117" s="8">
         <v>341960.04180000001</v>
       </c>
-      <c r="L117" s="6">
+      <c r="L117" s="8">
         <v>-51667076.283100002</v>
       </c>
-      <c r="M117" s="6">
+      <c r="M117" s="8">
         <v>47.733699999999999</v>
       </c>
     </row>
@@ -6114,19 +6108,19 @@
       <c r="H118" s="2">
         <v>5.3802500000000003E-2</v>
       </c>
-      <c r="I118" s="6">
+      <c r="I118" s="8">
         <v>50024562.151900001</v>
       </c>
-      <c r="J118" s="6">
+      <c r="J118" s="8">
         <v>4126997.0752391</v>
       </c>
-      <c r="K118" s="6">
+      <c r="K118" s="8">
         <v>257230.57069999998</v>
       </c>
-      <c r="L118" s="6">
+      <c r="L118" s="8">
         <v>-54672696.310400002</v>
       </c>
-      <c r="M118" s="6">
+      <c r="M118" s="8">
         <v>53.802500000000002</v>
       </c>
     </row>
@@ -6155,19 +6149,19 @@
       <c r="H119" s="2">
         <v>6.0642799999999997E-2</v>
       </c>
-      <c r="I119" s="6">
+      <c r="I119" s="8">
         <v>50508821.286600001</v>
       </c>
-      <c r="J119" s="6">
+      <c r="J119" s="8">
         <v>4545394.0146042993</v>
       </c>
-      <c r="K119" s="6">
+      <c r="K119" s="8">
         <v>295582.23570000002</v>
       </c>
-      <c r="L119" s="6">
+      <c r="L119" s="8">
         <v>-37918840.5832</v>
       </c>
-      <c r="M119" s="6">
+      <c r="M119" s="8">
         <v>60.642799999999994</v>
       </c>
     </row>
@@ -6196,19 +6190,19 @@
       <c r="H120" s="2">
         <v>6.8352700000000002E-2</v>
       </c>
-      <c r="I120" s="6">
+      <c r="I120" s="8">
         <v>53051002.392100006</v>
       </c>
-      <c r="J120" s="6">
+      <c r="J120" s="8">
         <v>4800893.2226216998</v>
       </c>
-      <c r="K120" s="6">
+      <c r="K120" s="8">
         <v>329170.47739999997</v>
       </c>
-      <c r="L120" s="6">
+      <c r="L120" s="8">
         <v>-49926303.162799999</v>
       </c>
-      <c r="M120" s="6">
+      <c r="M120" s="8">
         <v>68.352699999999999</v>
       </c>
     </row>
@@ -6237,19 +6231,19 @@
       <c r="H121" s="2">
         <v>7.7042899999999997E-2</v>
       </c>
-      <c r="I121" s="6">
+      <c r="I121" s="8">
         <v>49366981.357899994</v>
       </c>
-      <c r="J121" s="6">
+      <c r="J121" s="8">
         <v>5383337.0945130996</v>
       </c>
-      <c r="K121" s="6">
+      <c r="K121" s="8">
         <v>366495.22139999998</v>
       </c>
-      <c r="L121" s="6">
+      <c r="L121" s="8">
         <v>-62772713.789399996</v>
       </c>
-      <c r="M121" s="6">
+      <c r="M121" s="8">
         <v>77.042900000000003</v>
       </c>
     </row>
@@ -6278,19 +6272,19 @@
       <c r="H122" s="2">
         <v>8.6837899999999996E-2</v>
       </c>
-      <c r="I122" s="6">
+      <c r="I122" s="8">
         <v>47222808.927600004</v>
       </c>
-      <c r="J122" s="6">
+      <c r="J122" s="8">
         <v>5262267.2408608999</v>
       </c>
-      <c r="K122" s="6">
+      <c r="K122" s="8">
         <v>340933.21680000005</v>
       </c>
-      <c r="L122" s="6">
+      <c r="L122" s="8">
         <v>-64423863.861400001</v>
       </c>
-      <c r="M122" s="6">
+      <c r="M122" s="8">
         <v>86.837899999999991</v>
       </c>
     </row>
@@ -6319,19 +6313,19 @@
       <c r="H123" s="2">
         <v>9.7878199999999999E-2</v>
       </c>
-      <c r="I123" s="6">
+      <c r="I123" s="8">
         <v>47987275.492899999</v>
       </c>
-      <c r="J123" s="6">
+      <c r="J123" s="8">
         <v>5404512.1528522</v>
       </c>
-      <c r="K123" s="6">
+      <c r="K123" s="8">
         <v>388782.03470000002</v>
       </c>
-      <c r="L123" s="6">
+      <c r="L123" s="8">
         <v>-56695393.399999999</v>
       </c>
-      <c r="M123" s="6">
+      <c r="M123" s="8">
         <v>97.878199999999993</v>
       </c>
     </row>
@@ -6360,19 +6354,19 @@
       <c r="H124" s="2">
         <v>0.1103222</v>
       </c>
-      <c r="I124" s="6">
+      <c r="I124" s="8">
         <v>48772414.127999999</v>
       </c>
-      <c r="J124" s="6">
+      <c r="J124" s="8">
         <v>5405603.1246565003</v>
       </c>
-      <c r="K124" s="6">
+      <c r="K124" s="8">
         <v>420845.77480000001</v>
       </c>
-      <c r="L124" s="6">
+      <c r="L124" s="8">
         <v>-73044671.094899997</v>
       </c>
-      <c r="M124" s="6">
+      <c r="M124" s="8">
         <v>110.3222</v>
       </c>
     </row>
@@ -6401,19 +6395,19 @@
       <c r="H125" s="2">
         <v>0.12434820000000001</v>
       </c>
-      <c r="I125" s="6">
+      <c r="I125" s="8">
         <v>53370028.919</v>
       </c>
-      <c r="J125" s="6">
+      <c r="J125" s="8">
         <v>5728507.5250682002</v>
       </c>
-      <c r="K125" s="6">
+      <c r="K125" s="8">
         <v>440428.06280000001</v>
       </c>
-      <c r="L125" s="6">
+      <c r="L125" s="8">
         <v>-67069148.533100002</v>
       </c>
-      <c r="M125" s="6">
+      <c r="M125" s="8">
         <v>124.34820000000001</v>
       </c>
     </row>
@@ -6442,19 +6436,19 @@
       <c r="H126" s="2">
         <v>0.14015749999999999</v>
       </c>
-      <c r="I126" s="6">
+      <c r="I126" s="8">
         <v>54779296.360799998</v>
       </c>
-      <c r="J126" s="6">
+      <c r="J126" s="8">
         <v>5808263.5084074996</v>
       </c>
-      <c r="K126" s="6">
+      <c r="K126" s="8">
         <v>376540.97070000001</v>
       </c>
-      <c r="L126" s="6">
+      <c r="L126" s="8">
         <v>-66325810.056100003</v>
       </c>
-      <c r="M126" s="6">
+      <c r="M126" s="8">
         <v>140.1575</v>
       </c>
     </row>
@@ -6483,19 +6477,19 @@
       <c r="H127" s="2">
         <v>0.1579768</v>
       </c>
-      <c r="I127" s="6">
+      <c r="I127" s="8">
         <v>55691695.8046</v>
       </c>
-      <c r="J127" s="6">
+      <c r="J127" s="8">
         <v>6073554.2337337006</v>
       </c>
-      <c r="K127" s="6">
+      <c r="K127" s="8">
         <v>395976.69180000003</v>
       </c>
-      <c r="L127" s="6">
+      <c r="L127" s="8">
         <v>-70033010.55839999</v>
       </c>
-      <c r="M127" s="6">
+      <c r="M127" s="8">
         <v>157.9768</v>
       </c>
     </row>
@@ -6524,19 +6518,19 @@
       <c r="H128" s="2">
         <v>0.17806150000000001</v>
       </c>
-      <c r="I128" s="6">
+      <c r="I128" s="8">
         <v>65389285.548900001</v>
       </c>
-      <c r="J128" s="6">
+      <c r="J128" s="8">
         <v>5240650.4247265998</v>
       </c>
-      <c r="K128" s="6">
+      <c r="K128" s="8">
         <v>395021.62019999995</v>
       </c>
-      <c r="L128" s="6">
+      <c r="L128" s="8">
         <v>-56602342.7742</v>
       </c>
-      <c r="M128" s="6">
+      <c r="M128" s="8">
         <v>178.06150000000002</v>
       </c>
     </row>
@@ -6565,19 +6559,19 @@
       <c r="H129" s="2">
         <v>0.20069980000000001</v>
       </c>
-      <c r="I129" s="6">
+      <c r="I129" s="8">
         <v>66756933.551700003</v>
       </c>
-      <c r="J129" s="6">
+      <c r="J129" s="8">
         <v>4781119.1678182008</v>
       </c>
-      <c r="K129" s="6">
+      <c r="K129" s="8">
         <v>431455.42330000002</v>
       </c>
-      <c r="L129" s="6">
+      <c r="L129" s="8">
         <v>-58471920.131300002</v>
       </c>
-      <c r="M129" s="6">
+      <c r="M129" s="8">
         <v>200.69980000000001</v>
       </c>
     </row>
@@ -6606,19 +6600,19 @@
       <c r="H130" s="2">
         <v>0.22621620000000001</v>
       </c>
-      <c r="I130" s="6">
+      <c r="I130" s="8">
         <v>64397067.811499998</v>
       </c>
-      <c r="J130" s="6">
+      <c r="J130" s="8">
         <v>4064295.7407752001</v>
       </c>
-      <c r="K130" s="6">
+      <c r="K130" s="8">
         <v>392168.79390000005</v>
       </c>
-      <c r="L130" s="6">
+      <c r="L130" s="8">
         <v>-62976702.243000001</v>
       </c>
-      <c r="M130" s="6">
+      <c r="M130" s="8">
         <v>226.21620000000001</v>
       </c>
     </row>
@@ -6647,19 +6641,19 @@
       <c r="H131" s="2">
         <v>0.2549767</v>
       </c>
-      <c r="I131" s="6">
+      <c r="I131" s="8">
         <v>65978095.219900005</v>
       </c>
-      <c r="J131" s="6">
+      <c r="J131" s="8">
         <v>3688642.6233468</v>
       </c>
-      <c r="K131" s="6">
+      <c r="K131" s="8">
         <v>470108.58050000004</v>
       </c>
-      <c r="L131" s="6">
+      <c r="L131" s="8">
         <v>-72217482.275100008</v>
       </c>
-      <c r="M131" s="6">
+      <c r="M131" s="8">
         <v>254.97669999999999</v>
       </c>
     </row>
@@ -6688,19 +6682,19 @@
       <c r="H132" s="2">
         <v>0.28739369999999997</v>
       </c>
-      <c r="I132" s="6">
+      <c r="I132" s="8">
         <v>73651077.905200005</v>
       </c>
-      <c r="J132" s="6">
+      <c r="J132" s="8">
         <v>4249001.0679960996</v>
       </c>
-      <c r="K132" s="6">
+      <c r="K132" s="8">
         <v>489166.33799999999</v>
       </c>
-      <c r="L132" s="6">
+      <c r="L132" s="8">
         <v>-65662202.602300011</v>
       </c>
-      <c r="M132" s="6">
+      <c r="M132" s="8">
         <v>287.39369999999997</v>
       </c>
     </row>
@@ -6729,19 +6723,19 @@
       <c r="H133" s="2">
         <v>0.3198107</v>
       </c>
-      <c r="I133" s="6">
+      <c r="I133" s="8">
         <v>77451440.441700011</v>
       </c>
-      <c r="J133" s="6">
+      <c r="J133" s="8">
         <v>4248924.0005857004</v>
       </c>
-      <c r="K133" s="6">
+      <c r="K133" s="8">
         <v>485504.30920000002</v>
       </c>
-      <c r="L133" s="6">
+      <c r="L133" s="8">
         <v>-62018044.265099995</v>
       </c>
-      <c r="M133" s="6">
+      <c r="M133" s="8">
         <v>319.8107</v>
       </c>
     </row>
@@ -6770,19 +6764,19 @@
       <c r="H134" s="2">
         <v>0.32260800000000001</v>
       </c>
-      <c r="I134" s="6">
+      <c r="I134" s="8">
         <v>77018348.398100004</v>
       </c>
-      <c r="J134" s="6">
+      <c r="J134" s="8">
         <v>3479687.4255031999</v>
       </c>
-      <c r="K134" s="6">
+      <c r="K134" s="8">
         <v>509320.57789999997</v>
       </c>
-      <c r="L134" s="6">
+      <c r="L134" s="8">
         <v>-71951381.61559999</v>
       </c>
-      <c r="M134" s="6">
+      <c r="M134" s="8">
         <v>322.608</v>
       </c>
     </row>
@@ -6811,19 +6805,19 @@
       <c r="H135" s="2">
         <v>0.38480160000000002</v>
       </c>
-      <c r="I135" s="6">
+      <c r="I135" s="8">
         <v>74430394.618200004</v>
       </c>
-      <c r="J135" s="6">
+      <c r="J135" s="8">
         <v>3119733.5011743</v>
       </c>
-      <c r="K135" s="6">
+      <c r="K135" s="8">
         <v>481727.31190000003</v>
       </c>
-      <c r="L135" s="6">
+      <c r="L135" s="8">
         <v>-56407775.963100001</v>
       </c>
-      <c r="M135" s="6">
+      <c r="M135" s="8">
         <v>384.80160000000001</v>
       </c>
     </row>
@@ -6852,19 +6846,19 @@
       <c r="H136" s="2">
         <v>0.45285239999999999</v>
       </c>
-      <c r="I136" s="6">
+      <c r="I136" s="8">
         <v>80837031.775900006</v>
       </c>
-      <c r="J136" s="6">
+      <c r="J136" s="8">
         <v>3199968.9907542001</v>
       </c>
-      <c r="K136" s="6">
+      <c r="K136" s="8">
         <v>528088.53559999994</v>
       </c>
-      <c r="L136" s="6">
+      <c r="L136" s="8">
         <v>-46136842.452299997</v>
       </c>
-      <c r="M136" s="6">
+      <c r="M136" s="8">
         <v>452.85239999999999</v>
       </c>
     </row>
@@ -6893,19 +6887,19 @@
       <c r="H137" s="2">
         <v>0.50380270000000005</v>
       </c>
-      <c r="I137" s="6">
+      <c r="I137" s="8">
         <v>84120987.616900012</v>
       </c>
-      <c r="J137" s="6">
+      <c r="J137" s="8">
         <v>3322495.9546888</v>
       </c>
-      <c r="K137" s="6">
+      <c r="K137" s="8">
         <v>445351.76990000001</v>
       </c>
-      <c r="L137" s="6">
+      <c r="L137" s="8">
         <v>-65702953.072999999</v>
       </c>
-      <c r="M137" s="6">
+      <c r="M137" s="8">
         <v>503.80270000000007</v>
       </c>
     </row>
